--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D26508E-022B-4C8E-8019-B752BF612D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454FD531-9BC8-44F3-ABA9-2312C48D8D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26745" yWindow="1230" windowWidth="21600" windowHeight="11385" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Test #</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Flexsor Test 10mm</t>
+  </si>
+  <si>
+    <t>*Fish scale seems to be +/- 1 N</t>
   </si>
 </sst>
 </file>
@@ -597,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDD6FA0-ED90-4B9F-A1DF-3E2DAEF07409}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>520</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -634,7 +637,7 @@
       </c>
       <c r="C3">
         <f>C2-C2*0.17</f>
-        <v>431.6</v>
+        <v>381.8</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -700,7 +703,31 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>33.299999999999997</v>
+        <v>22.3</v>
+      </c>
+      <c r="D6">
+        <v>21.6</v>
+      </c>
+      <c r="E6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F6">
+        <v>13.7</v>
+      </c>
+      <c r="G6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H6">
+        <v>7.8</v>
+      </c>
+      <c r="I6">
+        <v>5.9</v>
+      </c>
+      <c r="J6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -708,7 +735,31 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>75</v>
+        <v>102</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>81.5</v>
+      </c>
+      <c r="F7">
+        <v>66</v>
+      </c>
+      <c r="G7">
+        <v>47</v>
+      </c>
+      <c r="H7">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -718,23 +769,38 @@
       <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2">
-        <v>40.5</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="C8" s="4">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="D8" s="4">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="E8" s="4">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="F8" s="4">
+        <v>70.8</v>
+      </c>
+      <c r="G8" s="4">
+        <v>70.8</v>
+      </c>
+      <c r="H8" s="4">
+        <v>72.3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="J8" s="4">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="K8" s="4">
+        <v>77.5</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -755,30 +821,44 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
-        <v>435</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="C10" s="16">
+        <v>430</v>
+      </c>
+      <c r="D10" s="16">
+        <v>430</v>
+      </c>
+      <c r="E10" s="16">
+        <v>420</v>
+      </c>
+      <c r="F10" s="16">
+        <v>415</v>
+      </c>
+      <c r="G10" s="16">
+        <v>410</v>
+      </c>
+      <c r="H10" s="16">
+        <v>401</v>
+      </c>
+      <c r="I10" s="16">
+        <v>390</v>
+      </c>
+      <c r="J10" s="16">
+        <v>388</v>
+      </c>
+      <c r="K10" s="16">
+        <v>385</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -835,9 +915,6 @@
       <c r="P12" s="16">
         <v>268.06</v>
       </c>
-      <c r="Q12" s="16">
-        <v>268.06</v>
-      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
@@ -847,14 +924,30 @@
       <c r="C13" s="16">
         <v>30</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="D13" s="16">
+        <v>30</v>
+      </c>
+      <c r="E13" s="16">
+        <v>30</v>
+      </c>
+      <c r="F13" s="16">
+        <v>30</v>
+      </c>
+      <c r="G13" s="16">
+        <v>34</v>
+      </c>
+      <c r="H13" s="16">
+        <v>35</v>
+      </c>
+      <c r="I13" s="16">
+        <v>45</v>
+      </c>
+      <c r="J13" s="16">
+        <v>50</v>
+      </c>
+      <c r="K13" s="16">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
@@ -867,43 +960,43 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>C6*SIN(RADIANS(C8))*C12/1000</f>
-        <v>5.7972317597184544</v>
+        <f t="shared" ref="C15:J15" si="0">C6*COS(RADIANS(C9-3.05))*C12/1000</f>
+        <v>5.9692704311431557</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:K15" si="0">D6*COS(RADIANS(D9-3.05))*D12/1000</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.7818942292687066</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.9788533640924975</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6672199509713548</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.6232668262422836</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0879062494581437</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5793137015132115</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3116334131211418</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K15:P15" si="1">K6*COS(RADIANS(K9-2.83))*K12/1000</f>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:Q15" si="1">L6*COS(RADIANS(L9-2.83))*L12/1000</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M15">
@@ -922,9 +1015,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +1032,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +1057,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>415</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -972,7 +1066,7 @@
       </c>
       <c r="C3">
         <f>C2-C2*0.17</f>
-        <v>344.45</v>
+        <v>381.8</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1030,34 +1124,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>23.454999999999998</v>
-      </c>
-      <c r="D6">
-        <v>23.064</v>
-      </c>
-      <c r="E6">
-        <v>21.006</v>
-      </c>
-      <c r="F6">
-        <v>15.817</v>
-      </c>
-      <c r="G6">
-        <v>11.64</v>
-      </c>
-      <c r="H6">
-        <v>7.8520000000000003</v>
-      </c>
-      <c r="I6">
-        <v>7.0689000000000002</v>
-      </c>
-      <c r="J6">
-        <v>4.274</v>
-      </c>
-      <c r="K6">
-        <v>2.855</v>
-      </c>
-      <c r="L6">
-        <v>1.2350000000000001</v>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1067,33 +1134,6 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>26.5</v>
-      </c>
-      <c r="G7">
-        <v>40</v>
-      </c>
-      <c r="H7">
-        <v>49.5</v>
-      </c>
-      <c r="I7">
-        <v>54.5</v>
-      </c>
-      <c r="J7">
-        <v>61</v>
-      </c>
-      <c r="K7">
-        <v>63.5</v>
-      </c>
-      <c r="L7">
-        <v>81</v>
-      </c>
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -1105,33 +1145,15 @@
       <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="4">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4">
-        <v>25.5</v>
-      </c>
-      <c r="G8" s="4">
-        <v>26.7</v>
-      </c>
-      <c r="H8" s="4">
-        <v>26.7</v>
-      </c>
-      <c r="I8" s="4">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="J8" s="4">
-        <v>29.75</v>
-      </c>
-      <c r="K8" s="4">
-        <v>28.15</v>
-      </c>
-      <c r="L8" s="4">
-        <v>37.9</v>
-      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1143,36 +1165,16 @@
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16">
-        <v>23</v>
-      </c>
-      <c r="D9" s="16">
-        <v>23</v>
-      </c>
-      <c r="E9" s="16">
-        <v>21</v>
-      </c>
-      <c r="F9" s="16">
-        <v>23</v>
-      </c>
-      <c r="G9" s="16">
-        <v>28</v>
-      </c>
-      <c r="H9" s="16">
-        <v>28</v>
-      </c>
-      <c r="I9" s="16">
-        <v>29.5</v>
-      </c>
-      <c r="J9" s="16">
-        <v>34</v>
-      </c>
-      <c r="K9" s="16">
-        <v>34</v>
-      </c>
-      <c r="L9" s="16">
-        <v>41</v>
-      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
@@ -1187,33 +1189,15 @@
       <c r="C10">
         <v>397</v>
       </c>
-      <c r="D10" s="16">
-        <v>390</v>
-      </c>
-      <c r="E10" s="16">
-        <v>387</v>
-      </c>
-      <c r="F10" s="16">
-        <v>380</v>
-      </c>
-      <c r="G10" s="16">
-        <v>375</v>
-      </c>
-      <c r="H10" s="16">
-        <v>371</v>
-      </c>
-      <c r="I10" s="16">
-        <v>367</v>
-      </c>
-      <c r="J10" s="16">
-        <v>365</v>
-      </c>
-      <c r="K10" s="16">
-        <v>365</v>
-      </c>
-      <c r="L10" s="16">
-        <v>357</v>
-      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1249,49 +1233,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="16">
-        <v>366.43</v>
+        <v>268.06</v>
       </c>
       <c r="D12" s="16">
-        <v>366.43</v>
+        <v>268.06</v>
       </c>
       <c r="E12" s="16">
-        <v>366.43</v>
+        <v>268.06</v>
       </c>
       <c r="F12" s="16">
-        <v>366.43</v>
+        <v>268.06</v>
       </c>
       <c r="G12" s="16">
-        <v>366.43</v>
+        <v>268.06</v>
       </c>
       <c r="H12" s="16">
-        <v>366.43</v>
+        <v>268.06</v>
       </c>
       <c r="I12" s="16">
-        <v>366.43</v>
+        <v>268.06</v>
       </c>
       <c r="J12" s="16">
-        <v>366.43</v>
+        <v>268.06</v>
       </c>
       <c r="K12" s="16">
-        <v>366.43</v>
+        <v>268.06</v>
       </c>
       <c r="L12" s="16">
-        <v>366.43</v>
+        <v>268.06</v>
       </c>
       <c r="M12" s="16">
-        <v>366.43</v>
+        <v>268.06</v>
       </c>
       <c r="N12" s="16">
-        <v>366.43</v>
+        <v>268.06</v>
       </c>
       <c r="O12" s="16">
-        <v>366.43</v>
+        <v>268.06</v>
       </c>
       <c r="P12" s="16">
-        <v>366.43</v>
+        <v>268.06</v>
       </c>
       <c r="Q12" s="16">
-        <v>366.43</v>
+        <v>268.06</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1300,35 +1284,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="16">
-        <v>38</v>
-      </c>
-      <c r="D13" s="16">
-        <v>42</v>
-      </c>
-      <c r="E13" s="16">
-        <v>42</v>
-      </c>
-      <c r="F13" s="16">
-        <v>40</v>
-      </c>
-      <c r="G13" s="16">
-        <v>35</v>
-      </c>
-      <c r="H13" s="16">
-        <v>39</v>
-      </c>
-      <c r="I13" s="16">
-        <v>35</v>
-      </c>
-      <c r="J13" s="16">
-        <v>35</v>
-      </c>
-      <c r="K13" s="16">
-        <v>33</v>
-      </c>
-      <c r="L13" s="16">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
@@ -1342,43 +1308,43 @@
       </c>
       <c r="C15">
         <f t="shared" ref="C15:Q15" si="0">C6*COS(RADIANS(C9-2.83))*C12/1000</f>
-        <v>8.0675396019501164</v>
+        <v>8.9155115680637369</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>7.9330519454008748</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>7.3134098135653147</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>5.4403868635278192</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>3.8602595964605353</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>2.6040170404989795</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>2.3146705904242482</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>1.3400292404683321</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>0.89512949965771826</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0.35577898666328733</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454FD531-9BC8-44F3-ABA9-2312C48D8D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD200211-D52A-4C4D-84E1-943E5D39E2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26745" yWindow="1230" windowWidth="21600" windowHeight="11385" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Test #</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>*Fish scale seems to be +/- 1 N</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>*Changed how the fish scale was tied</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>**Changed how it was tied again</t>
   </si>
 </sst>
 </file>
@@ -602,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDD6FA0-ED90-4B9F-A1DF-3E2DAEF07409}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -637,7 +649,7 @@
       </c>
       <c r="C3">
         <f>C2-C2*0.17</f>
-        <v>381.8</v>
+        <v>377.65</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1029,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F358BD-411F-4156-AA93-0DF96BD5C242}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>460</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1066,7 +1078,15 @@
       </c>
       <c r="C3">
         <f>C2-C2*0.17</f>
-        <v>381.8</v>
+        <v>402.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1124,7 +1144,37 @@
         <v>1</v>
       </c>
       <c r="C6">
+        <v>51.9</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>43.1</v>
+      </c>
+      <c r="F6">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="G6">
+        <v>51</v>
+      </c>
+      <c r="H6">
+        <v>51</v>
+      </c>
+      <c r="I6">
         <v>33.299999999999997</v>
+      </c>
+      <c r="J6">
+        <v>21.6</v>
+      </c>
+      <c r="K6">
+        <v>12.7</v>
+      </c>
+      <c r="L6">
+        <v>6.9</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1132,7 +1182,37 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>35</v>
+      </c>
+      <c r="J7">
+        <v>45</v>
+      </c>
+      <c r="K7">
+        <v>52</v>
+      </c>
+      <c r="L7">
+        <v>61</v>
+      </c>
+      <c r="M7">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1143,18 +1223,38 @@
         <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+        <v>93.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>94</v>
+      </c>
+      <c r="E8" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>84</v>
+      </c>
+      <c r="G8" s="4">
+        <v>83</v>
+      </c>
+      <c r="H8" s="4">
+        <v>85</v>
+      </c>
+      <c r="I8" s="4">
+        <v>86</v>
+      </c>
+      <c r="J8" s="4">
+        <v>85</v>
+      </c>
+      <c r="K8" s="4">
+        <v>79</v>
+      </c>
+      <c r="L8" s="4">
+        <v>81</v>
+      </c>
+      <c r="M8" s="4">
+        <v>81</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1187,18 +1287,38 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>397</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="1"/>
+        <v>460</v>
+      </c>
+      <c r="D10" s="16">
+        <v>457</v>
+      </c>
+      <c r="E10" s="16">
+        <v>451</v>
+      </c>
+      <c r="F10" s="16">
+        <v>445</v>
+      </c>
+      <c r="G10" s="16">
+        <v>450</v>
+      </c>
+      <c r="H10" s="16">
+        <v>452</v>
+      </c>
+      <c r="I10" s="16">
+        <v>438</v>
+      </c>
+      <c r="J10" s="16">
+        <v>427</v>
+      </c>
+      <c r="K10" s="16">
+        <v>420</v>
+      </c>
+      <c r="L10" s="16">
+        <v>415</v>
+      </c>
+      <c r="M10" s="16">
+        <v>409</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1233,49 +1353,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="16">
-        <v>268.06</v>
+        <v>269</v>
       </c>
       <c r="D12" s="16">
-        <v>268.06</v>
+        <v>269</v>
       </c>
       <c r="E12" s="16">
-        <v>268.06</v>
+        <v>269</v>
       </c>
       <c r="F12" s="16">
-        <v>268.06</v>
+        <v>269</v>
       </c>
       <c r="G12" s="16">
-        <v>268.06</v>
+        <v>269</v>
       </c>
       <c r="H12" s="16">
-        <v>268.06</v>
+        <v>269</v>
       </c>
       <c r="I12" s="16">
-        <v>268.06</v>
+        <v>269</v>
       </c>
       <c r="J12" s="16">
-        <v>268.06</v>
+        <v>269</v>
       </c>
       <c r="K12" s="16">
-        <v>268.06</v>
+        <v>269</v>
       </c>
       <c r="L12" s="16">
-        <v>268.06</v>
+        <v>269</v>
       </c>
       <c r="M12" s="16">
-        <v>268.06</v>
+        <v>269</v>
       </c>
       <c r="N12" s="16">
-        <v>268.06</v>
+        <v>269</v>
       </c>
       <c r="O12" s="16">
-        <v>268.06</v>
+        <v>269</v>
       </c>
       <c r="P12" s="16">
-        <v>268.06</v>
+        <v>269</v>
       </c>
       <c r="Q12" s="16">
-        <v>268.06</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1284,17 +1404,38 @@
         <v>11</v>
       </c>
       <c r="C13" s="16">
-        <v>30</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
+        <v>66</v>
+      </c>
+      <c r="D13" s="16">
+        <v>70</v>
+      </c>
+      <c r="E13" s="16">
+        <v>75</v>
+      </c>
+      <c r="F13" s="16">
+        <v>77</v>
+      </c>
+      <c r="G13" s="16">
+        <v>74</v>
+      </c>
+      <c r="H13" s="16">
+        <v>75</v>
+      </c>
+      <c r="I13" s="16">
+        <v>78</v>
+      </c>
+      <c r="J13" s="16">
+        <v>77</v>
+      </c>
+      <c r="K13" s="16">
+        <v>75</v>
+      </c>
+      <c r="L13" s="16">
+        <v>68</v>
+      </c>
+      <c r="M13" s="16">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
@@ -1307,64 +1448,74 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:Q15" si="0">C6*COS(RADIANS(C9-2.83))*C12/1000</f>
-        <v>8.9155115680637369</v>
+        <f>C6*SIN(RADIANS(C8))*C12/1000</f>
+        <v>13.935059734247528</v>
       </c>
       <c r="D15">
+        <f t="shared" ref="C15:Q15" si="0">D6*COS(RADIANS(D9-2.83))*D12/1000</f>
+        <v>13.433596685970903</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>11.579760343306916</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>9.4841192602954543</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>13.702268619690319</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>13.702268619690319</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>8.9467753928566189</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>5.8033137683394296</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>3.4121335582366088</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>1.8538363426639843</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0.537343867438836</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="O15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="P15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="Q15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD200211-D52A-4C4D-84E1-943E5D39E2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F05F1D-0C01-41B1-A9E6-195E27994448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-28920" yWindow="9060" windowWidth="29040" windowHeight="15720" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm" sheetId="2" r:id="rId1"/>
     <sheet name="FlxTest10mm" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,8 +24,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -315,6 +318,1922 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ExtTest10mm!$C$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-81.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExtTest10mm!$C$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.9692704311431557</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7818942292687066</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9788533640924975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6672199509713548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6232668262422836</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0879062494581437</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5793137015132115</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3116334131211418</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CE6-48F4-99E2-B8A6EDEFF9C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1196127263"/>
+        <c:axId val="1196114783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1196127263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196114783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1196114783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196127263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FlxTest10mm!$C$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FlxTest10mm!$C$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-13.935059734247528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13.417236475994637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11.540523984249234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.4436815618485106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-13.616740654367296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-13.666795063120658</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.9358794930124255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.7882896737922795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.3535329468122539</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.8332483289786352</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.53137632724018413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9C6-4DEF-A029-39FE8F262D4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1394438799"/>
+        <c:axId val="1190584639"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1394438799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1190584639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1190584639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1394438799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106362</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676804</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>93662</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9589E56E-6E4D-4018-98E3-3F4B42592F79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>331258</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA82CB5-3533-401A-BE22-19227AB1F59F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -614,28 +2533,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDD6FA0-ED90-4B9F-A1DF-3E2DAEF07409}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="5"/>
+    <col min="2" max="2" width="25.1171875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -643,7 +2562,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -652,7 +2571,7 @@
         <v>377.65</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -660,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -710,7 +2629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -742,39 +2661,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>102</v>
+        <v>-102</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E7">
-        <v>81.5</v>
+        <v>-81.5</v>
       </c>
       <c r="F7">
-        <v>66</v>
+        <v>-66</v>
       </c>
       <c r="G7">
-        <v>47</v>
+        <v>-47</v>
       </c>
       <c r="H7">
-        <v>35</v>
+        <v>-35</v>
       </c>
       <c r="I7">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="J7">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -814,7 +2733,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -834,7 +2753,7 @@
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -872,7 +2791,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -880,7 +2799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -928,7 +2847,7 @@
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -961,13 +2880,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -1028,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.5">
       <c r="G17" t="s">
         <v>18</v>
       </c>
@@ -1036,6 +2955,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1043,28 +2963,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F358BD-411F-4156-AA93-0DF96BD5C242}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="5"/>
+    <col min="2" max="2" width="19.703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1072,7 +2992,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +3001,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="G4" t="s">
         <v>19</v>
       </c>
@@ -1089,7 +3009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +3059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -1177,45 +3097,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>-24</v>
       </c>
       <c r="F7">
-        <v>27</v>
+        <v>-27</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>-23</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>-21</v>
       </c>
       <c r="I7">
-        <v>35</v>
+        <v>-35</v>
       </c>
       <c r="J7">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="K7">
-        <v>52</v>
+        <v>-52</v>
       </c>
       <c r="L7">
-        <v>61</v>
+        <v>-61</v>
       </c>
       <c r="M7">
-        <v>65</v>
+        <v>-65</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -1260,7 +3180,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -1281,7 +3201,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -1324,7 +3244,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -1347,7 +3267,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -1398,7 +3318,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -1437,59 +3357,59 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C15">
-        <f>C6*SIN(RADIANS(C8))*C12/1000</f>
-        <v>13.935059734247528</v>
+        <f>C6*-SIN(RADIANS(C8))*C12/1000</f>
+        <v>-13.935059734247528</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="C15:Q15" si="0">D6*COS(RADIANS(D9-2.83))*D12/1000</f>
-        <v>13.433596685970903</v>
+        <f t="shared" ref="D15:O15" si="0">D6*-SIN(RADIANS(D8))*D12/1000</f>
+        <v>-13.417236475994637</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>11.579760343306916</v>
+        <v>-11.540523984249234</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>9.4841192602954543</v>
+        <v>-9.4436815618485106</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>13.702268619690319</v>
+        <v>-13.616740654367296</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>13.702268619690319</v>
+        <v>-13.666795063120658</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>8.9467753928566189</v>
+        <v>-8.9358794930124255</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>5.8033137683394296</v>
+        <v>-5.7882896737922795</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>3.4121335582366088</v>
+        <v>-3.3535329468122539</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>1.8538363426639843</v>
+        <v>-1.8332483289786352</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>0.537343867438836</v>
+        <v>-0.53137632724018413</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -1500,20 +3420,20 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D15:Q15" si="1">P6*COS(RADIANS(P9-2.83))*P12/1000</f>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="G16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.5">
       <c r="H17" t="s">
         <v>22</v>
       </c>
@@ -1521,5 +3441,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F05F1D-0C01-41B1-A9E6-195E27994448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B9322F-EF0E-458F-AF84-534651A4EDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="9060" windowWidth="29040" windowHeight="15720" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm" sheetId="2" r:id="rId1"/>
@@ -333,6 +333,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Extensor Knee Torque via Fish</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Scale</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -393,6 +423,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>ExtTest10mm!$C$7:$K$7</c:f>
@@ -674,6 +748,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Flexor 10mm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Knee Torque</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -705,7 +809,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4158344861650378E-2"/>
+          <c:y val="0.17072497123130037"/>
+          <c:w val="0.91627572927286405"/>
+          <c:h val="0.77864211737629463"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -761,6 +875,56 @@
             <c:trendlineType val="log"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22727306537689607"/>
+                  <c:y val="-0.10130839321960725"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2533,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDD6FA0-ED90-4B9F-A1DF-3E2DAEF07409}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2964,7 +3128,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3420,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" ref="D15:Q15" si="1">P6*COS(RADIANS(P9-2.83))*P12/1000</f>
+        <f t="shared" ref="P15:Q15" si="1">P6*COS(RADIANS(P9-2.83))*P12/1000</f>
         <v>0</v>
       </c>
       <c r="Q15">

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B9322F-EF0E-458F-AF84-534651A4EDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2464A911-7529-4A1B-8859-8F394078C9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
-    <sheet name="ExtTest10mm" sheetId="2" r:id="rId1"/>
-    <sheet name="FlxTest10mm" sheetId="1" r:id="rId2"/>
+    <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
+    <sheet name="ExtTest10mm_2" sheetId="4" r:id="rId2"/>
+    <sheet name="ExtTest10mm_3" sheetId="5" r:id="rId3"/>
+    <sheet name="FlxTest10mm_1" sheetId="1" r:id="rId4"/>
+    <sheet name="FlxTest10mm_2" sheetId="3" r:id="rId5"/>
+    <sheet name="FlxTest10mm_3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
   <si>
     <t>Test #</t>
   </si>
@@ -105,6 +107,30 @@
   </si>
   <si>
     <t>**Changed how it was tied again</t>
+  </si>
+  <si>
+    <t>^ Collected by Jason M.</t>
+  </si>
+  <si>
+    <t>^ Collected by Ben B.</t>
+  </si>
+  <si>
+    <t>*"eccentric" phase</t>
+  </si>
+  <si>
+    <t>* Beginning of "eccentric" phase</t>
+  </si>
+  <si>
+    <t>or 606 kPa</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>**pressure measured at 4.85V</t>
+  </si>
+  <si>
+    <t>***added in zero points</t>
   </si>
 </sst>
 </file>
@@ -469,7 +495,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ExtTest10mm!$C$7:$K$7</c:f>
+              <c:f>ExtTest10mm_1!$C$7:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -505,7 +531,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ExtTest10mm!$C$15:$K$15</c:f>
+              <c:f>ExtTest10mm_1!$C$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -768,6 +794,995 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Extensor Knee Torque via Fish</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Scale</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ExtTest10mm_2!$C$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-71.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-65.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-74.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-88.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-113.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExtTest10mm_2!$C$15:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.7830345306359385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7121022101478021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6679431976718684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8473582528420358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0441590124759332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5796251727200017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.356051105073901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1592503454400034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5073033495986472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2034093579159366</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2034093579159366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9798352902698362</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9798352902698362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B2F8-4973-A584-8BD2077B2DCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1196127263"/>
+        <c:axId val="1196114783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1196127263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196114783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1196114783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196127263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Extensor Knee Torque via Fish</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Scale</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11303399036537215"/>
+                  <c:y val="-1.248096463189626E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.1578872368074545E-2"/>
+                  <c:y val="-0.51961158320556466"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ExtTest10mm_3!$C$7:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-103.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-72.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-40.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-31.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-62.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-106</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExtTest10mm_3!$C$15:$X$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>5.7830345306359385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7121022101478021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4711424380379707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9356762777939025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6679431976718684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1592503454400034</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6237841851959351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8473582528420358</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4192669807259966</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53546616024406846</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53546616024406846</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0441590124759332</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.356051105073901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8915172653179693</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4002101175498343</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9356762777939025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2034093579159366</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7121022101478021</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9798352902698362</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.2917273828678031</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5594604629898381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E71F-439C-B9C5-CD9A006485DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1196127263"/>
+        <c:axId val="1196114783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1196127263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196114783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1196114783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196127263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Flexor 10mm</a:t>
             </a:r>
             <a:r>
@@ -928,7 +1943,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>FlxTest10mm!$C$7:$M$7</c:f>
+              <c:f>FlxTest10mm_1!$C$7:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -970,7 +1985,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>FlxTest10mm!$C$15:$M$15</c:f>
+              <c:f>FlxTest10mm_1!$C$15:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1014,6 +2029,1131 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A9C6-4DEF-A029-39FE8F262D4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1394438799"/>
+        <c:axId val="1190584639"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1394438799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1190584639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1190584639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1394438799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Flexor 10mm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Knee Torque</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4158344861650378E-2"/>
+          <c:y val="0.17072497123130037"/>
+          <c:w val="0.91627572927286405"/>
+          <c:h val="0.77864211737629463"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22727306537689607"/>
+                  <c:y val="-0.10130839321960725"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FlxTest10mm_2!$C$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-18.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-30.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-39.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-36.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-46.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-52.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-69.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-68.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-69.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-60.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-47.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-37.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-44.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-31.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-26.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FlxTest10mm_2!$C$15:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-19.068954741233185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15.757010778656756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-16.757880989398029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-14.152146023280066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.754560872133434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.9358794930124255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.252336926218919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.3975851511466315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.3082750824784268</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.5822075003678473</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.3908354178522484</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.5543965514246052</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.6619156376070272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13.685581205514529</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-16.000988456710289</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-17.056412477881121</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-18.140103715544743</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-18.664685089085111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B285-4467-B918-FF5F5B65F50E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1394438799"/>
+        <c:axId val="1190584639"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1394438799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1190584639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1190584639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1394438799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Flexor 10mm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Knee Torque</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4158344861650378E-2"/>
+          <c:y val="0.17072497123130037"/>
+          <c:w val="0.91627572927286405"/>
+          <c:h val="0.77864211737629463"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22727306537689607"/>
+                  <c:y val="-0.10130839321960725"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8393325834270717E-2"/>
+                  <c:y val="4.2005838379113501E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FlxTest10mm_3!$C$7:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-36.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-52.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-66.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-74.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-80.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-81.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-62</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-33.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-26.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FlxTest10mm_3!$C$15:$AB$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>-20.000953059801439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-19.624126237176398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-17.741048558732729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-14.641756857254569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-13.349745739575781</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-11.214686851691411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.8474158485490637</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.2254622106666728</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.4731761705738968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.1591385832964578</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.8219982151972092</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.8219982151972092</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.293882790502366</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.5262434091947874</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.293882790502366</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.0989364925987273</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.8942252977361735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.4731761705738968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7.7884505954723471</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-11.022087261987499</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-14.673168521817411</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-18.048856239906453</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-21.087097530598601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-22.774666231716282</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-19.335653408942736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4AA1-4973-9472-79C33887E012}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1284,6 +3424,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1801,6 +4101,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2361,6 +6725,92 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106362</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676804</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>93662</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72186E75-B80F-4EA0-A240-CBE3AC5EF811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>306387</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>84137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333904</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>112712</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{891FEC73-20AA-4948-8FA6-A13584A8E201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>74083</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -2382,6 +6832,92 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>331258</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CAEED8-D597-484F-9109-B63BD2F6D3AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>740833</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131233</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>36512</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91769963-0A6E-4DC1-A224-C4311BFEE8D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2697,45 +7233,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDD6FA0-ED90-4B9F-A1DF-3E2DAEF07409}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:K10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="5"/>
-    <col min="2" max="2" width="25.1171875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.29296875" customWidth="1"/>
-    <col min="5" max="5" width="8.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.29296875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
-    <col min="8" max="9" width="13.41015625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>455</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C3">
         <f>C2-C2*0.17</f>
-        <v>377.65</v>
+        <v>398.4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -2743,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -2793,7 +7329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -2825,7 +7361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -2857,7 +7393,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -2897,7 +7433,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -2917,7 +7453,7 @@
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -2955,7 +7491,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -2963,7 +7499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -3011,7 +7547,7 @@
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -3044,13 +7580,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -3111,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>18</v>
       </c>
@@ -3124,31 +7660,1219 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA6FDC1-BE91-452E-9828-27A0F9CF4E65}">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>480</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <f>C2-C2*0.17</f>
+        <v>398.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12">
+        <v>6</v>
+      </c>
+      <c r="I5" s="12">
+        <v>7</v>
+      </c>
+      <c r="J5" s="12">
+        <v>8</v>
+      </c>
+      <c r="K5" s="12">
+        <v>9</v>
+      </c>
+      <c r="L5" s="12">
+        <v>10</v>
+      </c>
+      <c r="M5" s="12">
+        <v>11</v>
+      </c>
+      <c r="N5" s="12">
+        <v>12</v>
+      </c>
+      <c r="O5" s="12">
+        <v>13</v>
+      </c>
+      <c r="P5" s="12">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>21.6</v>
+      </c>
+      <c r="D6">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E6">
+        <v>13.7</v>
+      </c>
+      <c r="F6">
+        <v>6.9</v>
+      </c>
+      <c r="G6">
+        <v>3.9</v>
+      </c>
+      <c r="H6">
+        <v>5.9</v>
+      </c>
+      <c r="I6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J6">
+        <v>11.8</v>
+      </c>
+      <c r="K6">
+        <v>13.1</v>
+      </c>
+      <c r="L6">
+        <v>15.7</v>
+      </c>
+      <c r="M6">
+        <v>15.7</v>
+      </c>
+      <c r="N6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="O6">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>-110</v>
+      </c>
+      <c r="D7">
+        <v>-82</v>
+      </c>
+      <c r="E7">
+        <v>-71.5</v>
+      </c>
+      <c r="F7">
+        <v>-55</v>
+      </c>
+      <c r="G7">
+        <v>-42</v>
+      </c>
+      <c r="H7">
+        <v>-43</v>
+      </c>
+      <c r="I7">
+        <v>-65.5</v>
+      </c>
+      <c r="J7">
+        <v>-74.5</v>
+      </c>
+      <c r="K7">
+        <v>-72</v>
+      </c>
+      <c r="L7">
+        <v>-82</v>
+      </c>
+      <c r="M7">
+        <v>-88.5</v>
+      </c>
+      <c r="N7">
+        <v>-98</v>
+      </c>
+      <c r="O7">
+        <v>-113.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>111</v>
+      </c>
+      <c r="D8" s="4">
+        <v>111</v>
+      </c>
+      <c r="E8" s="4">
+        <v>110.5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>108</v>
+      </c>
+      <c r="G8" s="4">
+        <v>104.5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>114.5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>108</v>
+      </c>
+      <c r="J8" s="2">
+        <v>109.5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>110</v>
+      </c>
+      <c r="L8" s="2">
+        <v>117</v>
+      </c>
+      <c r="M8" s="2">
+        <v>113</v>
+      </c>
+      <c r="N8" s="2">
+        <v>112</v>
+      </c>
+      <c r="O8" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>448</v>
+      </c>
+      <c r="D10" s="16">
+        <v>445.5</v>
+      </c>
+      <c r="E10" s="16">
+        <v>429.5</v>
+      </c>
+      <c r="F10" s="16">
+        <v>413.5</v>
+      </c>
+      <c r="G10" s="16">
+        <v>401</v>
+      </c>
+      <c r="H10" s="16">
+        <v>410</v>
+      </c>
+      <c r="I10" s="16">
+        <v>417.5</v>
+      </c>
+      <c r="J10" s="16">
+        <v>422.5</v>
+      </c>
+      <c r="K10" s="16">
+        <v>430.5</v>
+      </c>
+      <c r="L10" s="16">
+        <v>429.5</v>
+      </c>
+      <c r="M10" s="16">
+        <v>441.5</v>
+      </c>
+      <c r="N10" s="16">
+        <v>439</v>
+      </c>
+      <c r="O10" s="16">
+        <v>443.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="D12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="E12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="F12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="G12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="H12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="I12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="J12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="K12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="L12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="M12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="N12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="O12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="P12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>268.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="16">
+        <v>46</v>
+      </c>
+      <c r="D13" s="16">
+        <v>54.5</v>
+      </c>
+      <c r="E13" s="16">
+        <v>53</v>
+      </c>
+      <c r="F13" s="16">
+        <v>52</v>
+      </c>
+      <c r="G13" s="16">
+        <v>57</v>
+      </c>
+      <c r="H13" s="16">
+        <v>49</v>
+      </c>
+      <c r="I13" s="16">
+        <v>53</v>
+      </c>
+      <c r="J13" s="16">
+        <v>53</v>
+      </c>
+      <c r="K13" s="16">
+        <v>54</v>
+      </c>
+      <c r="L13" s="16">
+        <v>51</v>
+      </c>
+      <c r="M13" s="16">
+        <v>52</v>
+      </c>
+      <c r="N13" s="16">
+        <v>53</v>
+      </c>
+      <c r="O13" s="16">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f>C6*COS(RADIANS(C9-2.83))*C12/1000</f>
+        <v>5.7830345306359385</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:Q15" si="0">D6*COS(RADIANS(D9-2.83))*D12/1000</f>
+        <v>4.7121022101478021</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3.6679431976718684</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.8473582528420358</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1.0441590124759332</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.5796251727200017</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>2.356051105073901</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>3.1592503454400034</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>3.5073033495986472</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>4.2034093579159366</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>4.2034093579159366</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>4.9798352902698362</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>4.9798352902698362</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50982267-BE91-4E95-AD63-2E538907EFD2}">
+  <dimension ref="A1:Y17"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>480</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <f>C2-C2*0.17</f>
+        <v>398.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12">
+        <v>6</v>
+      </c>
+      <c r="I5" s="12">
+        <v>7</v>
+      </c>
+      <c r="J5" s="12">
+        <v>8</v>
+      </c>
+      <c r="K5" s="12">
+        <v>9</v>
+      </c>
+      <c r="L5" s="12">
+        <v>10</v>
+      </c>
+      <c r="M5" s="12">
+        <v>11</v>
+      </c>
+      <c r="N5" s="12">
+        <v>12</v>
+      </c>
+      <c r="O5" s="12">
+        <v>13</v>
+      </c>
+      <c r="P5" s="12">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>15</v>
+      </c>
+      <c r="R5" s="12">
+        <v>16</v>
+      </c>
+      <c r="S5" s="12">
+        <v>17</v>
+      </c>
+      <c r="T5" s="12">
+        <v>18</v>
+      </c>
+      <c r="U5" s="12">
+        <v>19</v>
+      </c>
+      <c r="V5" s="12">
+        <v>20</v>
+      </c>
+      <c r="W5" s="12">
+        <v>21</v>
+      </c>
+      <c r="X5" s="12">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>21.6</v>
+      </c>
+      <c r="D6">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E6">
+        <v>16.7</v>
+      </c>
+      <c r="F6">
+        <v>14.7</v>
+      </c>
+      <c r="G6">
+        <v>13.7</v>
+      </c>
+      <c r="H6">
+        <v>11.8</v>
+      </c>
+      <c r="I6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J6">
+        <v>6.9</v>
+      </c>
+      <c r="K6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>3.9</v>
+      </c>
+      <c r="P6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Q6">
+        <v>10.8</v>
+      </c>
+      <c r="R6">
+        <v>12.7</v>
+      </c>
+      <c r="S6">
+        <v>14.7</v>
+      </c>
+      <c r="T6">
+        <v>15.7</v>
+      </c>
+      <c r="U6">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="V6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="W6">
+        <v>23.5</v>
+      </c>
+      <c r="X6">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>-110</v>
+      </c>
+      <c r="D7">
+        <v>-105</v>
+      </c>
+      <c r="E7">
+        <v>-103.5</v>
+      </c>
+      <c r="F7">
+        <v>-91</v>
+      </c>
+      <c r="G7">
+        <v>-80</v>
+      </c>
+      <c r="H7">
+        <v>-72.5</v>
+      </c>
+      <c r="I7">
+        <v>-62</v>
+      </c>
+      <c r="J7">
+        <v>-48</v>
+      </c>
+      <c r="K7">
+        <v>-40.5</v>
+      </c>
+      <c r="L7">
+        <v>-31</v>
+      </c>
+      <c r="M7">
+        <v>-30</v>
+      </c>
+      <c r="N7">
+        <v>-31.5</v>
+      </c>
+      <c r="O7">
+        <v>-43</v>
+      </c>
+      <c r="P7">
+        <v>-50</v>
+      </c>
+      <c r="Q7">
+        <v>-62.5</v>
+      </c>
+      <c r="R7">
+        <v>-69</v>
+      </c>
+      <c r="S7">
+        <v>-78</v>
+      </c>
+      <c r="T7">
+        <v>-88</v>
+      </c>
+      <c r="U7">
+        <v>-93</v>
+      </c>
+      <c r="V7">
+        <v>-100</v>
+      </c>
+      <c r="W7">
+        <v>-106</v>
+      </c>
+      <c r="X7">
+        <v>-107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>111</v>
+      </c>
+      <c r="D8" s="4">
+        <v>110.5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>69</v>
+      </c>
+      <c r="F8" s="4">
+        <v>70</v>
+      </c>
+      <c r="G8" s="4">
+        <v>70</v>
+      </c>
+      <c r="H8" s="2">
+        <v>70</v>
+      </c>
+      <c r="I8" s="2">
+        <v>109</v>
+      </c>
+      <c r="J8" s="2">
+        <v>73.5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>64</v>
+      </c>
+      <c r="L8" s="2">
+        <v>73</v>
+      </c>
+      <c r="M8" s="2">
+        <v>73</v>
+      </c>
+      <c r="N8" s="2">
+        <v>73</v>
+      </c>
+      <c r="O8" s="2">
+        <v>71</v>
+      </c>
+      <c r="P8" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>68</v>
+      </c>
+      <c r="R8" s="2">
+        <v>68</v>
+      </c>
+      <c r="S8" s="2">
+        <v>66</v>
+      </c>
+      <c r="T8" s="2">
+        <v>67</v>
+      </c>
+      <c r="U8" s="2">
+        <v>67</v>
+      </c>
+      <c r="V8" s="2">
+        <v>67</v>
+      </c>
+      <c r="W8" s="2">
+        <v>67</v>
+      </c>
+      <c r="X8" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>445</v>
+      </c>
+      <c r="D10" s="16">
+        <v>445</v>
+      </c>
+      <c r="E10" s="16">
+        <v>433</v>
+      </c>
+      <c r="F10" s="16">
+        <v>426</v>
+      </c>
+      <c r="G10" s="16">
+        <v>423</v>
+      </c>
+      <c r="H10" s="16">
+        <v>421</v>
+      </c>
+      <c r="I10" s="16">
+        <v>420</v>
+      </c>
+      <c r="J10" s="16">
+        <v>415</v>
+      </c>
+      <c r="K10" s="16">
+        <v>405</v>
+      </c>
+      <c r="L10" s="16">
+        <v>400</v>
+      </c>
+      <c r="M10" s="16">
+        <v>398</v>
+      </c>
+      <c r="N10" s="16">
+        <v>400</v>
+      </c>
+      <c r="O10" s="16">
+        <v>405</v>
+      </c>
+      <c r="P10" s="16">
+        <v>407</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>416</v>
+      </c>
+      <c r="R10" s="16">
+        <v>420</v>
+      </c>
+      <c r="S10" s="16">
+        <v>430</v>
+      </c>
+      <c r="T10" s="16">
+        <v>433</v>
+      </c>
+      <c r="U10" s="16">
+        <v>441</v>
+      </c>
+      <c r="V10" s="16">
+        <v>440</v>
+      </c>
+      <c r="W10" s="16">
+        <v>450</v>
+      </c>
+      <c r="X10" s="16">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="D12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="E12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="F12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="G12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="H12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="I12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="J12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="K12" s="16">
+        <v>290</v>
+      </c>
+      <c r="L12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="M12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="N12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="O12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="P12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="R12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="S12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="T12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="U12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="V12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="W12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="X12" s="16">
+        <v>268.06</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>268.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="16">
+        <v>32</v>
+      </c>
+      <c r="D13" s="16">
+        <v>30</v>
+      </c>
+      <c r="E13" s="16">
+        <v>30</v>
+      </c>
+      <c r="F13" s="16">
+        <v>30</v>
+      </c>
+      <c r="G13" s="16">
+        <v>30</v>
+      </c>
+      <c r="H13" s="16">
+        <v>30</v>
+      </c>
+      <c r="I13" s="16">
+        <v>30</v>
+      </c>
+      <c r="J13" s="16">
+        <v>30</v>
+      </c>
+      <c r="K13" s="16">
+        <v>35</v>
+      </c>
+      <c r="L13" s="16">
+        <v>35</v>
+      </c>
+      <c r="M13" s="16">
+        <v>40</v>
+      </c>
+      <c r="N13" s="16">
+        <v>35</v>
+      </c>
+      <c r="O13" s="16">
+        <v>34</v>
+      </c>
+      <c r="P13" s="16">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>30</v>
+      </c>
+      <c r="R13" s="16">
+        <v>30</v>
+      </c>
+      <c r="S13" s="16">
+        <v>30</v>
+      </c>
+      <c r="T13" s="16">
+        <v>30</v>
+      </c>
+      <c r="U13" s="16">
+        <v>30</v>
+      </c>
+      <c r="V13" s="16">
+        <v>30</v>
+      </c>
+      <c r="W13" s="16">
+        <v>30</v>
+      </c>
+      <c r="X13" s="16">
+        <v>30</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f>C6*COS(RADIANS(C9-2.83))*C12/1000</f>
+        <v>5.7830345306359385</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:Y15" si="0">D6*COS(RADIANS(D9-2.83))*D12/1000</f>
+        <v>4.7121022101478021</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4.4711424380379707</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>3.9356762777939025</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>3.6679431976718684</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>3.1592503454400034</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>2.6237841851959351</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1.8473582528420358</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>1.4192669807259966</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0.53546616024406846</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0.53546616024406846</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>1.0441590124759332</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>2.356051105073901</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>2.8915172653179693</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>3.4002101175498343</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>3.9356762777939025</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>4.2034093579159366</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>4.7121022101478021</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>4.9798352902698362</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>6.2917273828678031</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>6.5594604629898381</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F358BD-411F-4156-AA93-0DF96BD5C242}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="5"/>
-    <col min="2" max="2" width="19.703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.29296875" customWidth="1"/>
-    <col min="5" max="5" width="8.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.29296875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
-    <col min="8" max="9" width="13.41015625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -3156,7 +8880,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -3165,7 +8889,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>19</v>
       </c>
@@ -3173,7 +8897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -3223,7 +8947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -3261,7 +8985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -3299,7 +9023,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -3344,7 +9068,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -3365,7 +9089,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -3408,7 +9132,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -3431,7 +9155,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -3482,7 +9206,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -3521,13 +9245,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -3592,14 +9316,1569 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6146F73C-E4FC-4324-9793-33EFE048507C}">
+  <dimension ref="A1:U15"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>455</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <f>C2-C2*0.17</f>
+        <v>377.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12">
+        <v>6</v>
+      </c>
+      <c r="I5" s="12">
+        <v>7</v>
+      </c>
+      <c r="J5" s="12">
+        <v>8</v>
+      </c>
+      <c r="K5" s="12">
+        <v>9</v>
+      </c>
+      <c r="L5" s="12">
+        <v>10</v>
+      </c>
+      <c r="M5" s="12">
+        <v>11</v>
+      </c>
+      <c r="N5" s="12">
+        <v>12</v>
+      </c>
+      <c r="O5" s="12">
+        <v>13</v>
+      </c>
+      <c r="P5" s="12">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>P5+1</f>
+        <v>15</v>
+      </c>
+      <c r="R5" s="12">
+        <f>Q5+1</f>
+        <v>16</v>
+      </c>
+      <c r="S5" s="12">
+        <f t="shared" ref="S5:U5" si="0">R5+1</f>
+        <v>17</v>
+      </c>
+      <c r="T5" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U5" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>71.5</v>
+      </c>
+      <c r="D6">
+        <v>58.8</v>
+      </c>
+      <c r="E6">
+        <v>62.7</v>
+      </c>
+      <c r="F6">
+        <v>52.9</v>
+      </c>
+      <c r="G6">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="H6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="I6">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J6">
+        <v>12.7</v>
+      </c>
+      <c r="K6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L6">
+        <v>5.9</v>
+      </c>
+      <c r="M6">
+        <v>12.7</v>
+      </c>
+      <c r="N6">
+        <v>24.5</v>
+      </c>
+      <c r="O6">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="P6">
+        <v>51</v>
+      </c>
+      <c r="Q6">
+        <v>59.8</v>
+      </c>
+      <c r="R6">
+        <v>63.7</v>
+      </c>
+      <c r="S6">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="T6">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>-18.5</v>
+      </c>
+      <c r="D7">
+        <v>-30.5</v>
+      </c>
+      <c r="E7">
+        <v>-39.5</v>
+      </c>
+      <c r="F7">
+        <v>-36.5</v>
+      </c>
+      <c r="G7">
+        <v>-42</v>
+      </c>
+      <c r="H7">
+        <v>-46.5</v>
+      </c>
+      <c r="I7">
+        <v>-52.5</v>
+      </c>
+      <c r="J7">
+        <v>-69.5</v>
+      </c>
+      <c r="K7">
+        <v>-68.5</v>
+      </c>
+      <c r="L7">
+        <v>-69.900000000000006</v>
+      </c>
+      <c r="M7">
+        <v>-60.5</v>
+      </c>
+      <c r="N7">
+        <v>-53</v>
+      </c>
+      <c r="O7">
+        <v>-47.5</v>
+      </c>
+      <c r="P7">
+        <v>-37.5</v>
+      </c>
+      <c r="Q7">
+        <v>-44.5</v>
+      </c>
+      <c r="R7">
+        <v>-31.5</v>
+      </c>
+      <c r="S7">
+        <v>-26.5</v>
+      </c>
+      <c r="T7">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>95</v>
+      </c>
+      <c r="E8" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>96</v>
+      </c>
+      <c r="G8" s="4">
+        <v>96</v>
+      </c>
+      <c r="H8" s="4">
+        <v>94</v>
+      </c>
+      <c r="I8" s="4">
+        <v>95</v>
+      </c>
+      <c r="J8" s="4">
+        <v>96</v>
+      </c>
+      <c r="K8" s="4">
+        <v>97</v>
+      </c>
+      <c r="L8" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="M8" s="4">
+        <v>97</v>
+      </c>
+      <c r="N8" s="4">
+        <v>96</v>
+      </c>
+      <c r="O8" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="P8" s="4">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>95.9</v>
+      </c>
+      <c r="R8" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="S8" s="4">
+        <v>94</v>
+      </c>
+      <c r="T8" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>459</v>
+      </c>
+      <c r="D10" s="16">
+        <v>448</v>
+      </c>
+      <c r="E10" s="16">
+        <v>449</v>
+      </c>
+      <c r="F10" s="16">
+        <v>433</v>
+      </c>
+      <c r="G10" s="16">
+        <v>423</v>
+      </c>
+      <c r="H10" s="16">
+        <v>419.5</v>
+      </c>
+      <c r="I10" s="16">
+        <v>410.5</v>
+      </c>
+      <c r="J10" s="16">
+        <v>406</v>
+      </c>
+      <c r="K10" s="16">
+        <v>396</v>
+      </c>
+      <c r="L10" s="16">
+        <v>392.5</v>
+      </c>
+      <c r="M10" s="16">
+        <v>401.5</v>
+      </c>
+      <c r="N10" s="16">
+        <v>407</v>
+      </c>
+      <c r="O10" s="16">
+        <v>411.5</v>
+      </c>
+      <c r="P10" s="16">
+        <v>426</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>432</v>
+      </c>
+      <c r="R10" s="16">
+        <v>436</v>
+      </c>
+      <c r="S10" s="16">
+        <v>441</v>
+      </c>
+      <c r="T10" s="16">
+        <v>442.5</v>
+      </c>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="16">
+        <v>269</v>
+      </c>
+      <c r="D12" s="16">
+        <v>269</v>
+      </c>
+      <c r="E12" s="16">
+        <v>269</v>
+      </c>
+      <c r="F12" s="16">
+        <v>269</v>
+      </c>
+      <c r="G12" s="16">
+        <v>269</v>
+      </c>
+      <c r="H12" s="16">
+        <v>269</v>
+      </c>
+      <c r="I12" s="16">
+        <v>269</v>
+      </c>
+      <c r="J12" s="16">
+        <v>269</v>
+      </c>
+      <c r="K12" s="16">
+        <v>269</v>
+      </c>
+      <c r="L12" s="16">
+        <v>269</v>
+      </c>
+      <c r="M12" s="16">
+        <v>269</v>
+      </c>
+      <c r="N12" s="16">
+        <v>269</v>
+      </c>
+      <c r="O12" s="16">
+        <v>269</v>
+      </c>
+      <c r="P12" s="16">
+        <v>269</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>269</v>
+      </c>
+      <c r="R12" s="16">
+        <f>Q12</f>
+        <v>269</v>
+      </c>
+      <c r="S12" s="16">
+        <f t="shared" ref="S12:U12" si="1">R12</f>
+        <v>269</v>
+      </c>
+      <c r="T12" s="16">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+      <c r="U12" s="16">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="16">
+        <v>76</v>
+      </c>
+      <c r="D13" s="16">
+        <v>84</v>
+      </c>
+      <c r="E13" s="16">
+        <v>81</v>
+      </c>
+      <c r="F13" s="16">
+        <v>85</v>
+      </c>
+      <c r="G13" s="16">
+        <v>84</v>
+      </c>
+      <c r="H13" s="16">
+        <v>83</v>
+      </c>
+      <c r="I13" s="16">
+        <v>81</v>
+      </c>
+      <c r="J13" s="16">
+        <v>85</v>
+      </c>
+      <c r="K13" s="16">
+        <v>64</v>
+      </c>
+      <c r="L13" s="16">
+        <v>66.5</v>
+      </c>
+      <c r="M13" s="16">
+        <v>70</v>
+      </c>
+      <c r="N13" s="16">
+        <v>81</v>
+      </c>
+      <c r="O13" s="16">
+        <v>83.5</v>
+      </c>
+      <c r="P13" s="16">
+        <v>85.5</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>85</v>
+      </c>
+      <c r="R13" s="16">
+        <v>86</v>
+      </c>
+      <c r="S13" s="16">
+        <v>80.5</v>
+      </c>
+      <c r="T13" s="16">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:N15" si="2">C6*-SIN(RADIANS(C8))*C12/1000</f>
+        <v>-19.068954741233185</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>-15.757010778656756</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>-16.757880989398029</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>-14.152146023280066</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>-10.754560872133434</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>-8.9358794930124255</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>-5.252336926218919</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>-3.3975851511466315</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>-1.3082750824784268</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>-1.5822075003678473</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>-3.3908354178522484</v>
+      </c>
+      <c r="N15">
+        <f>N6*-SIN(RADIANS(N8))*N12/1000</f>
+        <v>-6.5543965514246052</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ref="O15:U15" si="3">O6*-SIN(RADIANS(O8))*O12/1000</f>
+        <v>-8.6619156376070272</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>-13.685581205514529</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>-16.000988456710289</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>-17.056412477881121</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>-18.140103715544743</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="3"/>
+        <v>-18.664685089085111</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D752D96D-CFF4-4F0D-A512-550321C29C07}">
+  <dimension ref="A1:AJ18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>455</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <f>C2-C2*0.17</f>
+        <v>377.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12">
+        <v>6</v>
+      </c>
+      <c r="I5" s="12">
+        <v>7</v>
+      </c>
+      <c r="J5" s="12">
+        <v>8</v>
+      </c>
+      <c r="K5" s="12">
+        <v>9</v>
+      </c>
+      <c r="L5" s="12">
+        <v>10</v>
+      </c>
+      <c r="M5" s="12">
+        <v>11</v>
+      </c>
+      <c r="N5" s="12">
+        <v>12</v>
+      </c>
+      <c r="O5" s="12">
+        <v>13</v>
+      </c>
+      <c r="P5" s="12">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>P5+1</f>
+        <v>15</v>
+      </c>
+      <c r="R5" s="12">
+        <f>Q5+1</f>
+        <v>16</v>
+      </c>
+      <c r="S5" s="12">
+        <f t="shared" ref="S5:AF5" si="0">R5+1</f>
+        <v>17</v>
+      </c>
+      <c r="T5" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U5" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V5" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W5" s="12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="X5" s="12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Y5" s="12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Z5" s="12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AA5" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB5" s="12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AC5" s="12">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AD5" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AE5" s="12">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AF5" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>75.5</v>
+      </c>
+      <c r="D6">
+        <v>73.5</v>
+      </c>
+      <c r="E6">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="F6">
+        <v>54.9</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>42.1</v>
+      </c>
+      <c r="I6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J6">
+        <v>23.5</v>
+      </c>
+      <c r="K6">
+        <v>20.6</v>
+      </c>
+      <c r="L6">
+        <v>15.7</v>
+      </c>
+      <c r="M6">
+        <v>6.9</v>
+      </c>
+      <c r="N6">
+        <v>6.9</v>
+      </c>
+      <c r="O6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S6">
+        <v>7.9</v>
+      </c>
+      <c r="T6">
+        <v>14.7</v>
+      </c>
+      <c r="U6">
+        <v>20.6</v>
+      </c>
+      <c r="V6">
+        <v>29.4</v>
+      </c>
+      <c r="W6">
+        <v>41.2</v>
+      </c>
+      <c r="X6">
+        <v>54.9</v>
+      </c>
+      <c r="Y6">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="Z6">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="AA6">
+        <v>85.3</v>
+      </c>
+      <c r="AB6">
+        <v>72.5</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>-30</v>
+      </c>
+      <c r="D7">
+        <v>-32</v>
+      </c>
+      <c r="E7">
+        <v>-36.5</v>
+      </c>
+      <c r="F7">
+        <v>-41</v>
+      </c>
+      <c r="G7">
+        <v>-51</v>
+      </c>
+      <c r="H7">
+        <v>-52.5</v>
+      </c>
+      <c r="I7">
+        <v>-56.5</v>
+      </c>
+      <c r="J7">
+        <v>-63</v>
+      </c>
+      <c r="K7">
+        <v>-66.5</v>
+      </c>
+      <c r="L7">
+        <v>-74.5</v>
+      </c>
+      <c r="M7">
+        <v>-80.5</v>
+      </c>
+      <c r="N7">
+        <v>-80</v>
+      </c>
+      <c r="O7">
+        <v>-82</v>
+      </c>
+      <c r="P7">
+        <v>-86</v>
+      </c>
+      <c r="Q7">
+        <v>-90</v>
+      </c>
+      <c r="R7">
+        <v>-85</v>
+      </c>
+      <c r="S7">
+        <v>-81.5</v>
+      </c>
+      <c r="T7">
+        <v>-76</v>
+      </c>
+      <c r="U7">
+        <v>-70</v>
+      </c>
+      <c r="V7">
+        <v>-62</v>
+      </c>
+      <c r="W7">
+        <v>-58</v>
+      </c>
+      <c r="X7">
+        <v>-49</v>
+      </c>
+      <c r="Y7">
+        <v>-45</v>
+      </c>
+      <c r="Z7">
+        <v>-37</v>
+      </c>
+      <c r="AA7">
+        <v>-33.5</v>
+      </c>
+      <c r="AB7">
+        <v>-26.5</v>
+      </c>
+      <c r="AC7">
+        <v>-95</v>
+      </c>
+      <c r="AD7">
+        <v>-100</v>
+      </c>
+      <c r="AE7">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>80</v>
+      </c>
+      <c r="D8" s="4">
+        <v>83</v>
+      </c>
+      <c r="E8" s="4">
+        <v>82</v>
+      </c>
+      <c r="F8" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>83</v>
+      </c>
+      <c r="H8" s="4">
+        <v>82</v>
+      </c>
+      <c r="I8" s="4">
+        <v>81</v>
+      </c>
+      <c r="J8" s="4">
+        <v>80</v>
+      </c>
+      <c r="K8" s="4">
+        <v>81</v>
+      </c>
+      <c r="L8" s="4">
+        <v>80</v>
+      </c>
+      <c r="M8" s="4">
+        <v>79</v>
+      </c>
+      <c r="N8" s="4">
+        <v>79</v>
+      </c>
+      <c r="O8" s="4">
+        <v>79</v>
+      </c>
+      <c r="P8" s="4">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>78</v>
+      </c>
+      <c r="R8" s="4">
+        <v>79</v>
+      </c>
+      <c r="S8" s="4">
+        <v>81</v>
+      </c>
+      <c r="T8" s="4">
+        <v>80</v>
+      </c>
+      <c r="U8" s="2">
+        <v>81</v>
+      </c>
+      <c r="V8" s="2">
+        <v>80</v>
+      </c>
+      <c r="W8" s="2">
+        <v>84</v>
+      </c>
+      <c r="X8" s="2">
+        <v>83.5</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>82.5</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+    </row>
+    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>438</v>
+      </c>
+      <c r="D10" s="16">
+        <v>438</v>
+      </c>
+      <c r="E10" s="16">
+        <v>434</v>
+      </c>
+      <c r="F10" s="16">
+        <v>424</v>
+      </c>
+      <c r="G10" s="16">
+        <v>419</v>
+      </c>
+      <c r="H10" s="16">
+        <v>415</v>
+      </c>
+      <c r="I10" s="16">
+        <v>408</v>
+      </c>
+      <c r="J10" s="16">
+        <v>401</v>
+      </c>
+      <c r="K10" s="16">
+        <v>399</v>
+      </c>
+      <c r="L10" s="16">
+        <v>394</v>
+      </c>
+      <c r="M10" s="16">
+        <v>388</v>
+      </c>
+      <c r="N10" s="16">
+        <v>388</v>
+      </c>
+      <c r="O10" s="16">
+        <v>386</v>
+      </c>
+      <c r="P10" s="16">
+        <v>381</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>380</v>
+      </c>
+      <c r="R10" s="16">
+        <v>384</v>
+      </c>
+      <c r="S10" s="16">
+        <v>386</v>
+      </c>
+      <c r="T10" s="16">
+        <v>390</v>
+      </c>
+      <c r="U10" s="3">
+        <v>394</v>
+      </c>
+      <c r="V10" s="3">
+        <v>400</v>
+      </c>
+      <c r="W10" s="3">
+        <v>407</v>
+      </c>
+      <c r="X10" s="3">
+        <v>413</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>422</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>426</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>433</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>438</v>
+      </c>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="16">
+        <v>269</v>
+      </c>
+      <c r="D12" s="16">
+        <v>269</v>
+      </c>
+      <c r="E12" s="16">
+        <v>269</v>
+      </c>
+      <c r="F12" s="16">
+        <v>269</v>
+      </c>
+      <c r="G12" s="16">
+        <v>269</v>
+      </c>
+      <c r="H12" s="16">
+        <v>269</v>
+      </c>
+      <c r="I12" s="16">
+        <v>269</v>
+      </c>
+      <c r="J12" s="16">
+        <v>269</v>
+      </c>
+      <c r="K12" s="16">
+        <v>269</v>
+      </c>
+      <c r="L12" s="16">
+        <v>269</v>
+      </c>
+      <c r="M12" s="16">
+        <v>269</v>
+      </c>
+      <c r="N12" s="16">
+        <v>269</v>
+      </c>
+      <c r="O12" s="16">
+        <v>269</v>
+      </c>
+      <c r="P12" s="16">
+        <v>269</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>269</v>
+      </c>
+      <c r="R12" s="16">
+        <v>269</v>
+      </c>
+      <c r="S12" s="16">
+        <v>269</v>
+      </c>
+      <c r="T12" s="16">
+        <v>269</v>
+      </c>
+      <c r="U12" s="16">
+        <v>269</v>
+      </c>
+      <c r="V12" s="16">
+        <v>269</v>
+      </c>
+      <c r="W12" s="16">
+        <v>269</v>
+      </c>
+      <c r="X12" s="16">
+        <v>269</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>269</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>269</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>269</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>269</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>269</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>269</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>269</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="16">
+        <v>85</v>
+      </c>
+      <c r="D13" s="16">
+        <v>85</v>
+      </c>
+      <c r="E13" s="16">
+        <v>85</v>
+      </c>
+      <c r="F13" s="16">
+        <v>88</v>
+      </c>
+      <c r="G13" s="16">
+        <v>90</v>
+      </c>
+      <c r="H13" s="16">
+        <v>88</v>
+      </c>
+      <c r="I13" s="16">
+        <v>83</v>
+      </c>
+      <c r="J13" s="16">
+        <v>80</v>
+      </c>
+      <c r="K13" s="16">
+        <v>75</v>
+      </c>
+      <c r="L13" s="16">
+        <v>70</v>
+      </c>
+      <c r="M13" s="16">
+        <v>60</v>
+      </c>
+      <c r="N13" s="16">
+        <v>64</v>
+      </c>
+      <c r="O13" s="16">
+        <v>60</v>
+      </c>
+      <c r="P13" s="16">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>63</v>
+      </c>
+      <c r="R13" s="16">
+        <v>65</v>
+      </c>
+      <c r="S13" s="16">
+        <v>65</v>
+      </c>
+      <c r="T13" s="16">
+        <v>68</v>
+      </c>
+      <c r="U13" s="16">
+        <v>75</v>
+      </c>
+      <c r="V13" s="16">
+        <v>79</v>
+      </c>
+      <c r="W13" s="16">
+        <v>84</v>
+      </c>
+      <c r="X13" s="16">
+        <v>90</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>92</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>90</v>
+      </c>
+      <c r="AA13" s="16">
+        <v>89</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:L15" si="1">C6*-SIN(RADIANS(C8))*C12/1000</f>
+        <v>-20.000953059801439</v>
+      </c>
+      <c r="D15">
+        <f>D6*-SIN(RADIANS(D8))*D12/1000</f>
+        <v>-19.624126237176398</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-17.741048558732729</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>-14.641756857254569</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-13.349745739575781</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>-11.214686851691411</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>-8.8474158485490637</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>-6.2254622106666728</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>-5.4731761705738968</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>-4.1591385832964578</v>
+      </c>
+      <c r="M15">
+        <f>M6*-SIN(RADIANS(M8))*M12/1000</f>
+        <v>-1.8219982151972092</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15:AF15" si="2">N6*-SIN(RADIANS(N8))*N12/1000</f>
+        <v>-1.8219982151972092</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>-1.293882790502366</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>-0.5262434091947874</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>-1.293882790502366</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>-2.0989364925987273</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>-3.8942252977361735</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>-5.4731761705738968</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>-7.7884505954723471</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>-11.022087261987499</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>-14.673168521817411</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="2"/>
+        <v>-18.048856239906453</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="2"/>
+        <v>-21.087097530598601</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="2"/>
+        <v>-22.774666231716282</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="2"/>
+        <v>-19.335653408942736</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="21:29" x14ac:dyDescent="0.25">
+      <c r="U17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="21:29" x14ac:dyDescent="0.25">
+      <c r="U18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2464A911-7529-4A1B-8859-8F394078C9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB85DE5-A56C-4332-9B54-1A9142E2860A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="FlxTest10mm_1" sheetId="1" r:id="rId4"/>
     <sheet name="FlxTest10mm_2" sheetId="3" r:id="rId5"/>
     <sheet name="FlxTest10mm_3" sheetId="6" r:id="rId6"/>
+    <sheet name="FlxTest10mm_4" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="37">
   <si>
     <t>Test #</t>
   </si>
@@ -130,7 +131,25 @@
     <t>**pressure measured at 4.85V</t>
   </si>
   <si>
-    <t>***added in zero points</t>
+    <t>*Picture of leak taken</t>
+  </si>
+  <si>
+    <t>pressure = 612 kPa</t>
+  </si>
+  <si>
+    <t>actual max contraction</t>
+  </si>
+  <si>
+    <t>**begin measuring other direction</t>
+  </si>
+  <si>
+    <t>***changed how fish scale is tied</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>****"eccentric"</t>
   </si>
 </sst>
 </file>
@@ -3344,6 +3363,683 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Flexor 10mm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Knee Torque</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4158344861650378E-2"/>
+          <c:y val="0.17072497123130037"/>
+          <c:w val="0.91627572927286405"/>
+          <c:h val="0.77864211737629463"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.60346456692913386"/>
+                  <c:y val="-0.28313193524076818"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.40464027934008251"/>
+                  <c:y val="-1.2615056781268678E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FlxTest10mm_4!$C$7:$AI$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-44.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-69.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-61.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-25.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-13.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-19.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FlxTest10mm_4!$C$15:$AI$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>-15.246483570390076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13.941705190220141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12.362162318692665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11.047038667767913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.057927895014096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.249812691491476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.9624215389975834</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.8748591905108887</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.0965682509548906</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.0468840980888259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.0207759000050749</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.0207759000050749</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.8341472127383747</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.9959517976224896</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-11.599390601156308</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-13.399377301467048</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-15.991903595244979</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-11.862415331341261</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-16.235685136019999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-17.298992892846496</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-17.104782078438934</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-16.018724831639286</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-14.222885844471438</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-14.880455258168681</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-15.17480497772614</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-16.232030909257233</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-16.250738814501108</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-17.092302239456121</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-16.156412412367597</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B771-4C56-A69D-B7F3E808952B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1394438799"/>
+        <c:axId val="1190584639"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1394438799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1190584639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1190584639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1394438799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3584,6 +4280,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6165,6 +6901,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6912,6 +8164,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91769963-0A6E-4DC1-A224-C4311BFEE8D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>740833</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131233</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>36512</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739FA640-F8ED-4CD7-A88D-06604D5CF975}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8144,7 +9439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50982267-BE91-4E95-AD63-2E538907EFD2}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
@@ -8852,7 +10147,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9877,7 +11172,7 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:N15" si="2">C6*-SIN(RADIANS(C8))*C12/1000</f>
+        <f t="shared" ref="C15:M15" si="2">C6*-SIN(RADIANS(C8))*C12/1000</f>
         <v>-19.068954741233185</v>
       </c>
       <c r="D15">
@@ -9964,8 +11259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D752D96D-CFF4-4F0D-A512-550321C29C07}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10012,9 +11307,6 @@
       <c r="U4" t="s">
         <v>21</v>
       </c>
-      <c r="AC4" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -10110,22 +11402,6 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AC5" s="12">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AD5" s="12">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="AE5" s="12">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="AF5" s="12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -10209,9 +11485,6 @@
       <c r="AB6">
         <v>72.5</v>
       </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -10295,15 +11568,6 @@
       <c r="AB7">
         <v>-26.5</v>
       </c>
-      <c r="AC7">
-        <v>-95</v>
-      </c>
-      <c r="AD7">
-        <v>-100</v>
-      </c>
-      <c r="AE7">
-        <v>-105</v>
-      </c>
     </row>
     <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -10389,9 +11653,6 @@
       </c>
       <c r="AB8" s="2">
         <v>82.5</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -10635,18 +11896,10 @@
       <c r="AB12" s="16">
         <v>269</v>
       </c>
-      <c r="AC12" s="16">
-        <v>269</v>
-      </c>
-      <c r="AD12" s="16">
-        <v>269</v>
-      </c>
-      <c r="AE12" s="16">
-        <v>269</v>
-      </c>
-      <c r="AF12" s="16">
-        <v>269</v>
-      </c>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
@@ -10846,39 +12099,1050 @@
         <f t="shared" si="2"/>
         <v>-19.335653408942736</v>
       </c>
-      <c r="AC15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="21:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="21:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U18" t="s">
         <v>27</v>
       </c>
-      <c r="AC18" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
+  <dimension ref="A1:AJ19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>485</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <f>C2-C2*0.17</f>
+        <v>402.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>398</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12">
+        <v>6</v>
+      </c>
+      <c r="I5" s="12">
+        <v>7</v>
+      </c>
+      <c r="J5" s="12">
+        <v>8</v>
+      </c>
+      <c r="K5" s="12">
+        <v>9</v>
+      </c>
+      <c r="L5" s="12">
+        <v>10</v>
+      </c>
+      <c r="M5" s="12">
+        <v>11</v>
+      </c>
+      <c r="N5" s="12">
+        <v>12</v>
+      </c>
+      <c r="O5" s="12">
+        <v>13</v>
+      </c>
+      <c r="P5" s="12">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>P5+1</f>
+        <v>15</v>
+      </c>
+      <c r="R5" s="12">
+        <f>Q5+1</f>
+        <v>16</v>
+      </c>
+      <c r="S5" s="12">
+        <f t="shared" ref="S5:AB5" si="0">R5+1</f>
+        <v>17</v>
+      </c>
+      <c r="T5" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U5" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V5" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W5" s="12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="X5" s="12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Y5" s="12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Z5" s="12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AA5" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB5" s="12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AC5" s="12">
+        <f t="shared" ref="AC5" si="1">AB5+1</f>
+        <v>27</v>
+      </c>
+      <c r="AD5" s="12">
+        <f t="shared" ref="AD5" si="2">AC5+1</f>
+        <v>28</v>
+      </c>
+      <c r="AE5" s="12">
+        <f t="shared" ref="AE5" si="3">AD5+1</f>
+        <v>29</v>
+      </c>
+      <c r="AF5" s="12">
+        <f t="shared" ref="AF5" si="4">AE5+1</f>
         <v>30</v>
+      </c>
+      <c r="AG5" s="12">
+        <f t="shared" ref="AG5" si="5">AF5+1</f>
+        <v>31</v>
+      </c>
+      <c r="AH5" s="12">
+        <f t="shared" ref="AH5" si="6">AG5+1</f>
+        <v>32</v>
+      </c>
+      <c r="AI5" s="12">
+        <f t="shared" ref="AI5" si="7">AH5+1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>57.8</v>
+      </c>
+      <c r="D6">
+        <v>52.9</v>
+      </c>
+      <c r="E6">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="H6">
+        <v>31.4</v>
+      </c>
+      <c r="I6">
+        <v>26.5</v>
+      </c>
+      <c r="J6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K6">
+        <v>11.8</v>
+      </c>
+      <c r="L6">
+        <v>7.8</v>
+      </c>
+      <c r="M6">
+        <v>3.9</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>3.9</v>
+      </c>
+      <c r="Q6">
+        <v>10.8</v>
+      </c>
+      <c r="R6">
+        <v>30.4</v>
+      </c>
+      <c r="S6">
+        <v>44.1</v>
+      </c>
+      <c r="T6">
+        <v>51</v>
+      </c>
+      <c r="U6">
+        <v>60.8</v>
+      </c>
+      <c r="V6">
+        <v>45.1</v>
+      </c>
+      <c r="W6">
+        <v>60.8</v>
+      </c>
+      <c r="X6">
+        <v>64.7</v>
+      </c>
+      <c r="Y6">
+        <v>63.7</v>
+      </c>
+      <c r="Z6">
+        <v>61.7</v>
+      </c>
+      <c r="AA6">
+        <v>54.9</v>
+      </c>
+      <c r="AB6">
+        <v>56.8</v>
+      </c>
+      <c r="AC6">
+        <v>57.8</v>
+      </c>
+      <c r="AD6">
+        <v>61.7</v>
+      </c>
+      <c r="AE6">
+        <v>62.7</v>
+      </c>
+      <c r="AF6">
+        <v>65.7</v>
+      </c>
+      <c r="AG6">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>-22</v>
+      </c>
+      <c r="D7">
+        <v>-25</v>
+      </c>
+      <c r="E7">
+        <v>-32</v>
+      </c>
+      <c r="F7">
+        <v>-35</v>
+      </c>
+      <c r="G7">
+        <v>-37</v>
+      </c>
+      <c r="H7">
+        <v>-42</v>
+      </c>
+      <c r="I7">
+        <v>-44.5</v>
+      </c>
+      <c r="J7">
+        <v>-52</v>
+      </c>
+      <c r="K7">
+        <v>-57</v>
+      </c>
+      <c r="L7">
+        <v>-62</v>
+      </c>
+      <c r="M7">
+        <v>-68</v>
+      </c>
+      <c r="N7">
+        <v>-71</v>
+      </c>
+      <c r="O7">
+        <v>-69.5</v>
+      </c>
+      <c r="P7">
+        <v>-67</v>
+      </c>
+      <c r="Q7">
+        <v>-61.5</v>
+      </c>
+      <c r="R7">
+        <v>-48</v>
+      </c>
+      <c r="S7">
+        <v>-33</v>
+      </c>
+      <c r="T7">
+        <v>-34</v>
+      </c>
+      <c r="U7">
+        <v>-25.5</v>
+      </c>
+      <c r="V7">
+        <v>-36</v>
+      </c>
+      <c r="W7">
+        <v>-2</v>
+      </c>
+      <c r="X7">
+        <v>-8</v>
+      </c>
+      <c r="Y7">
+        <v>-13.5</v>
+      </c>
+      <c r="Z7">
+        <v>-19.5</v>
+      </c>
+      <c r="AA7">
+        <v>-24</v>
+      </c>
+      <c r="AB7">
+        <v>-24</v>
+      </c>
+      <c r="AC7">
+        <v>-20</v>
+      </c>
+      <c r="AD7">
+        <v>-19</v>
+      </c>
+      <c r="AE7">
+        <v>-15</v>
+      </c>
+      <c r="AF7">
+        <v>-13</v>
+      </c>
+      <c r="AG7">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>84</v>
+      </c>
+      <c r="E8" s="4">
+        <v>83</v>
+      </c>
+      <c r="F8" s="4">
+        <v>83</v>
+      </c>
+      <c r="G8" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="J8" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>82</v>
+      </c>
+      <c r="L8" s="4">
+        <v>82</v>
+      </c>
+      <c r="M8" s="4">
+        <v>81</v>
+      </c>
+      <c r="N8" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="O8" s="4">
+        <v>83</v>
+      </c>
+      <c r="P8" s="4">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>82</v>
+      </c>
+      <c r="R8" s="4">
+        <v>83</v>
+      </c>
+      <c r="S8" s="4">
+        <v>83</v>
+      </c>
+      <c r="T8" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="U8" s="4">
+        <v>83</v>
+      </c>
+      <c r="V8" s="4">
+        <v>83</v>
+      </c>
+      <c r="W8" s="4">
+        <v>102</v>
+      </c>
+      <c r="X8" s="4">
+        <v>98</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>96</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>103.5</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>104</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>104</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>103.5</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>103</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+    </row>
+    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>450</v>
+      </c>
+      <c r="D10" s="16">
+        <v>445</v>
+      </c>
+      <c r="E10" s="16">
+        <v>439</v>
+      </c>
+      <c r="F10" s="16">
+        <v>435</v>
+      </c>
+      <c r="G10" s="16">
+        <v>431</v>
+      </c>
+      <c r="H10" s="16">
+        <v>426</v>
+      </c>
+      <c r="I10" s="16">
+        <v>421</v>
+      </c>
+      <c r="J10" s="16">
+        <v>410</v>
+      </c>
+      <c r="K10" s="16">
+        <v>408</v>
+      </c>
+      <c r="L10" s="16">
+        <v>406</v>
+      </c>
+      <c r="M10" s="16">
+        <v>402</v>
+      </c>
+      <c r="N10" s="16">
+        <v>398</v>
+      </c>
+      <c r="O10" s="16">
+        <v>398</v>
+      </c>
+      <c r="P10" s="16">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>404</v>
+      </c>
+      <c r="R10" s="16">
+        <v>420</v>
+      </c>
+      <c r="S10" s="16">
+        <v>429</v>
+      </c>
+      <c r="T10" s="16">
+        <v>434</v>
+      </c>
+      <c r="U10" s="3">
+        <v>444</v>
+      </c>
+      <c r="V10" s="3">
+        <v>431</v>
+      </c>
+      <c r="W10" s="3">
+        <v>461</v>
+      </c>
+      <c r="X10" s="3">
+        <v>459</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>453</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>450</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>442</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>442</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>443</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>445</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>449</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>454</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>458</v>
+      </c>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="16">
+        <v>265</v>
+      </c>
+      <c r="D12" s="16">
+        <v>265</v>
+      </c>
+      <c r="E12" s="16">
+        <v>265</v>
+      </c>
+      <c r="F12" s="16">
+        <v>265</v>
+      </c>
+      <c r="G12" s="16">
+        <v>265</v>
+      </c>
+      <c r="H12" s="16">
+        <v>265</v>
+      </c>
+      <c r="I12" s="16">
+        <v>265</v>
+      </c>
+      <c r="J12" s="16">
+        <v>265</v>
+      </c>
+      <c r="K12" s="16">
+        <v>265</v>
+      </c>
+      <c r="L12" s="16">
+        <v>265</v>
+      </c>
+      <c r="M12" s="16">
+        <v>265</v>
+      </c>
+      <c r="N12" s="16">
+        <v>265</v>
+      </c>
+      <c r="O12" s="16">
+        <v>265</v>
+      </c>
+      <c r="P12" s="16">
+        <v>265</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>265</v>
+      </c>
+      <c r="R12" s="16">
+        <v>265</v>
+      </c>
+      <c r="S12" s="16">
+        <v>265</v>
+      </c>
+      <c r="T12" s="16">
+        <v>265</v>
+      </c>
+      <c r="U12" s="16">
+        <v>265</v>
+      </c>
+      <c r="V12" s="16">
+        <v>265</v>
+      </c>
+      <c r="W12" s="16">
+        <v>273</v>
+      </c>
+      <c r="X12" s="16">
+        <v>270</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>270</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>267</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>267</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>270</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>270</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>270</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>266</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>267</v>
+      </c>
+      <c r="AG12" s="16">
+        <v>265</v>
+      </c>
+      <c r="AH12" s="16">
+        <v>267</v>
+      </c>
+      <c r="AI12" s="16">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="16">
+        <v>75</v>
+      </c>
+      <c r="D13" s="16">
+        <v>77</v>
+      </c>
+      <c r="E13" s="16">
+        <v>80</v>
+      </c>
+      <c r="F13" s="16">
+        <v>83</v>
+      </c>
+      <c r="G13" s="16">
+        <v>84</v>
+      </c>
+      <c r="H13" s="16">
+        <v>84</v>
+      </c>
+      <c r="I13" s="16">
+        <v>84</v>
+      </c>
+      <c r="J13" s="16">
+        <v>79</v>
+      </c>
+      <c r="K13" s="16">
+        <v>77</v>
+      </c>
+      <c r="L13" s="16">
+        <v>75</v>
+      </c>
+      <c r="M13" s="16">
+        <v>69</v>
+      </c>
+      <c r="N13" s="16">
+        <v>65</v>
+      </c>
+      <c r="O13" s="16">
+        <v>65</v>
+      </c>
+      <c r="P13" s="16">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>73</v>
+      </c>
+      <c r="R13" s="16">
+        <v>84</v>
+      </c>
+      <c r="S13" s="16">
+        <v>83</v>
+      </c>
+      <c r="T13" s="16">
+        <v>82</v>
+      </c>
+      <c r="U13" s="16">
+        <v>79</v>
+      </c>
+      <c r="V13" s="16">
+        <v>83</v>
+      </c>
+      <c r="W13" s="16">
+        <v>58</v>
+      </c>
+      <c r="X13" s="16">
+        <v>64</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>69</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>73</v>
+      </c>
+      <c r="AA13" s="16">
+        <v>78</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>78</v>
+      </c>
+      <c r="AC13" s="16">
+        <v>75</v>
+      </c>
+      <c r="AD13" s="16">
+        <v>75</v>
+      </c>
+      <c r="AE13" s="16">
+        <v>75</v>
+      </c>
+      <c r="AF13" s="16">
+        <v>70</v>
+      </c>
+      <c r="AG13" s="16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:AI15" si="8">C6*-SIN(RADIANS(C8))*C12/1000</f>
+        <v>-15.246483570390076</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="8"/>
+        <v>-13.941705190220141</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="8"/>
+        <v>-12.362162318692665</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="8"/>
+        <v>-11.047038667767913</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="8"/>
+        <v>-10.057927895014096</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="8"/>
+        <v>-8.249812691491476</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>-6.9624215389975834</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="8"/>
+        <v>-4.8748591905108887</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="8"/>
+        <v>-3.0965682509548906</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>-2.0468840980888259</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="8"/>
+        <v>-1.0207759000050749</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>-1.0207759000050749</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="8"/>
+        <v>-2.8341472127383747</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="8"/>
+        <v>-7.9959517976224896</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="8"/>
+        <v>-11.599390601156308</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="8"/>
+        <v>-13.399377301467048</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="8"/>
+        <v>-15.991903595244979</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="8"/>
+        <v>-11.862415331341261</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="8"/>
+        <v>-16.235685136019999</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="8"/>
+        <v>-17.298992892846496</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="8"/>
+        <v>-17.104782078438934</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="8"/>
+        <v>-16.018724831639286</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="8"/>
+        <v>-14.222885844471438</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="8"/>
+        <v>-14.880455258168681</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="8"/>
+        <v>-15.17480497772614</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="8"/>
+        <v>-16.232030909257233</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="8"/>
+        <v>-16.250738814501108</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="8"/>
+        <v>-17.092302239456121</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="8"/>
+        <v>-16.156412412367597</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="W18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="10:29" x14ac:dyDescent="0.25">
+      <c r="AC19" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB85DE5-A56C-4332-9B54-1A9142E2860A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A2FE43-87A0-4073-B21A-755D3289975B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="3105" yWindow="1080" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -1926,8 +1926,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.22727306537689607"/>
-                  <c:y val="-0.10130839321960725"/>
+                  <c:x val="-0.4151176415448069"/>
+                  <c:y val="-0.16622090555512245"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -9440,7 +9440,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11363,7 +11363,7 @@
         <v>16</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5:AF5" si="0">R5+1</f>
+        <f t="shared" ref="S5:AB5" si="0">R5+1</f>
         <v>17</v>
       </c>
       <c r="T5" s="12">
@@ -12040,7 +12040,7 @@
         <v>-1.8219982151972092</v>
       </c>
       <c r="N15">
-        <f t="shared" ref="N15:AF15" si="2">N6*-SIN(RADIANS(N8))*N12/1000</f>
+        <f t="shared" ref="N15:AB15" si="2">N6*-SIN(RADIANS(N8))*N12/1000</f>
         <v>-1.8219982151972092</v>
       </c>
       <c r="O15">

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A2FE43-87A0-4073-B21A-755D3289975B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC3123F-8C71-4C70-8707-B68AB7734FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="1080" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="6" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="FlxTest10mm_3" sheetId="6" r:id="rId6"/>
     <sheet name="FlxTest10mm_4" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -8532,24 +8534,24 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="5"/>
+    <col min="2" max="2" width="25.1171875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -8557,7 +8559,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -8566,7 +8568,7 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -8574,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -8624,7 +8626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -8656,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -8688,7 +8690,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -8728,7 +8730,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -8748,7 +8750,7 @@
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -8786,7 +8788,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -8794,7 +8796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -8842,7 +8844,7 @@
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -8875,13 +8877,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -8942,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.5">
       <c r="G17" t="s">
         <v>18</v>
       </c>
@@ -8962,24 +8964,24 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="5"/>
+    <col min="2" max="2" width="25.1171875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -8990,7 +8992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -8999,7 +9001,7 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -9007,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -9057,7 +9059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -9101,7 +9103,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -9145,7 +9147,7 @@
         <v>-113.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -9192,7 +9194,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -9203,7 +9205,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -9248,7 +9250,7 @@
         <v>443.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -9256,7 +9258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -9307,7 +9309,7 @@
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -9352,13 +9354,13 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -9423,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.5">
       <c r="G17" t="s">
         <v>18</v>
       </c>
@@ -9439,28 +9441,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50982267-BE91-4E95-AD63-2E538907EFD2}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="5"/>
+    <col min="2" max="2" width="25.1171875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -9471,7 +9473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -9480,7 +9482,7 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -9491,7 +9493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -9565,7 +9567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -9636,7 +9638,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -9707,7 +9709,7 @@
         <v>-107</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -9781,7 +9783,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -9792,7 +9794,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -9864,7 +9866,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -9872,7 +9874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -9947,7 +9949,7 @@
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -10022,13 +10024,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -10125,12 +10127,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
       <c r="N16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.5">
       <c r="G17" t="s">
         <v>18</v>
       </c>
@@ -10146,28 +10148,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F358BD-411F-4156-AA93-0DF96BD5C242}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="5"/>
+    <col min="2" max="2" width="19.703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -10175,7 +10177,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -10184,7 +10186,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="G4" t="s">
         <v>19</v>
       </c>
@@ -10192,7 +10194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -10242,7 +10244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -10280,7 +10282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -10318,7 +10320,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -10363,7 +10365,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -10384,7 +10386,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -10427,7 +10429,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -10450,7 +10452,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -10501,7 +10503,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -10540,13 +10542,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -10611,12 +10613,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="G16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.5">
       <c r="H17" t="s">
         <v>22</v>
       </c>
@@ -10636,24 +10638,24 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="5"/>
+    <col min="2" max="2" width="19.703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -10664,7 +10666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -10673,7 +10675,7 @@
         <v>377.65</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -10740,7 +10742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -10799,7 +10801,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -10858,7 +10860,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -10921,7 +10923,7 @@
       </c>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -10946,7 +10948,7 @@
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -11007,7 +11009,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -11034,7 +11036,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -11101,7 +11103,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -11161,13 +11163,13 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -11263,24 +11265,24 @@
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="5"/>
+    <col min="2" max="2" width="19.703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -11291,7 +11293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -11300,7 +11302,7 @@
         <v>377.65</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
       <c r="R4" t="s">
         <v>19</v>
       </c>
@@ -11308,7 +11310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -11403,7 +11405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -11486,7 +11488,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -11569,7 +11571,7 @@
         <v>-26.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -11655,7 +11657,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -11695,7 +11697,7 @@
       <c r="AI9" s="17"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -11787,7 +11789,7 @@
       <c r="AI10" s="17"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -11813,7 +11815,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -11901,7 +11903,7 @@
       <c r="AE12" s="16"/>
       <c r="AF12" s="16"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -11985,13 +11987,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -12100,17 +12102,17 @@
         <v>-19.335653408942736</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.5">
       <c r="R16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="21:21" x14ac:dyDescent="0.5">
       <c r="U17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="21:21" x14ac:dyDescent="0.5">
       <c r="U18" t="s">
         <v>27</v>
       </c>
@@ -12126,28 +12128,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="5"/>
+    <col min="2" max="2" width="19.703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -12158,7 +12160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -12167,7 +12169,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -12187,7 +12189,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -12310,7 +12312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -12408,7 +12410,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -12506,7 +12508,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -12607,7 +12609,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -12647,7 +12649,7 @@
       <c r="AI9" s="17"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -12749,7 +12751,7 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -12775,7 +12777,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -12880,7 +12882,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -12979,13 +12981,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -13122,12 +13124,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.5">
       <c r="J16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:29" x14ac:dyDescent="0.5">
       <c r="J17" t="s">
         <v>31</v>
       </c>
@@ -13135,12 +13137,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:29" x14ac:dyDescent="0.5">
       <c r="W18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:29" x14ac:dyDescent="0.5">
       <c r="AC19" t="s">
         <v>36</v>
       </c>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC3123F-8C71-4C70-8707-B68AB7734FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76E42D8-DEA4-4E73-8CCC-1B2455A7FF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="6" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="3" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -8531,7 +8531,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -8960,8 +8960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA6FDC1-BE91-452E-9828-27A0F9CF4E65}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9441,8 +9441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50982267-BE91-4E95-AD63-2E538907EFD2}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -10148,8 +10148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F358BD-411F-4156-AA93-0DF96BD5C242}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -11261,7 +11261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D752D96D-CFF4-4F0D-A512-550321C29C07}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
@@ -12128,7 +12128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A2FE43-87A0-4073-B21A-755D3289975B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC590A0-BBA1-4A07-A9A2-069A0F986D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="1080" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="1980" yWindow="1515" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -8528,7 +8528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDD6FA0-ED90-4B9F-A1DF-3E2DAEF07409}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B21" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -8958,7 +8958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA6FDC1-BE91-452E-9828-27A0F9CF4E65}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B21" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -9439,7 +9439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50982267-BE91-4E95-AD63-2E538907EFD2}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC590A0-BBA1-4A07-A9A2-069A0F986D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98EB5B6-47CA-4F45-8147-7DBD2EC9BC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1515" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView minimized="1" xWindow="-22500" yWindow="1230" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="6" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -8528,7 +8528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDD6FA0-ED90-4B9F-A1DF-3E2DAEF07409}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" workbookViewId="0">
+    <sheetView topLeftCell="B11" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -8958,7 +8958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA6FDC1-BE91-452E-9828-27A0F9CF4E65}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" workbookViewId="0">
+    <sheetView topLeftCell="B11" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -9439,7 +9439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50982267-BE91-4E95-AD63-2E538907EFD2}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -10146,7 +10146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F358BD-411F-4156-AA93-0DF96BD5C242}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -10632,7 +10632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6146F73C-E4FC-4324-9793-33EFE048507C}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B21" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -11259,7 +11259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D752D96D-CFF4-4F0D-A512-550321C29C07}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
@@ -12126,7 +12126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98EB5B6-47CA-4F45-8147-7DBD2EC9BC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA49AA6E-806A-4CBB-830D-4FC64FE23966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-22500" yWindow="1230" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="6" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>tendon</t>
   </si>
   <si>
-    <t>Flexsor Test 10mm</t>
-  </si>
-  <si>
     <t>*Fish scale seems to be +/- 1 N</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>****"eccentric"</t>
+  </si>
+  <si>
+    <t>Flexor Test 10mm</t>
   </si>
 </sst>
 </file>
@@ -8528,8 +8528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDD6FA0-ED90-4B9F-A1DF-3E2DAEF07409}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8554,7 +8554,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>480</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -8563,7 +8563,7 @@
       </c>
       <c r="C3">
         <f>C2-C2*0.17</f>
-        <v>398.4</v>
+        <v>379.31</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -8944,7 +8944,7 @@
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -8958,7 +8958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA6FDC1-BE91-452E-9828-27A0F9CF4E65}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -8987,7 +8987,7 @@
         <v>480</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -9425,7 +9425,7 @@
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -9439,8 +9439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50982267-BE91-4E95-AD63-2E538907EFD2}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9468,7 +9468,7 @@
         <v>480</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -10127,12 +10127,12 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="N16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -10146,8 +10146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F358BD-411F-4156-AA93-0DF96BD5C242}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10164,7 +10164,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -10186,10 +10186,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -10613,12 +10613,12 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -10632,8 +10632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6146F73C-E4FC-4324-9793-33EFE048507C}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10650,7 +10650,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -10661,7 +10661,7 @@
         <v>455</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -11259,9 +11259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D752D96D-CFF4-4F0D-A512-550321C29C07}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11277,7 +11275,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -11288,7 +11286,7 @@
         <v>455</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -11302,10 +11300,10 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -12102,17 +12100,17 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -12126,8 +12124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12144,7 +12142,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -12155,7 +12153,7 @@
         <v>485</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -12169,22 +12167,22 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>398</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -13124,25 +13122,25 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:29" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="10:29" x14ac:dyDescent="0.25">
       <c r="W18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="10:29" x14ac:dyDescent="0.25">
       <c r="AC19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA49AA6E-806A-4CBB-830D-4FC64FE23966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DFDE21-1C9A-4095-B13C-F9A14A900745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="6" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="FlxTest10mm_3" sheetId="6" r:id="rId6"/>
     <sheet name="FlxTest10mm_4" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -8529,27 +8531,27 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="5"/>
+    <col min="2" max="2" width="25.1171875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -8557,7 +8559,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -8566,7 +8568,7 @@
         <v>379.31</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -8574,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -8624,7 +8626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -8656,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -8688,7 +8690,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -8728,7 +8730,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -8748,7 +8750,7 @@
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -8786,7 +8788,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -8794,7 +8796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -8842,7 +8844,7 @@
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -8875,13 +8877,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -8942,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.5">
       <c r="G17" t="s">
         <v>17</v>
       </c>
@@ -8962,24 +8964,24 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="5"/>
+    <col min="2" max="2" width="25.1171875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -8990,7 +8992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -8999,7 +9001,7 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -9007,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -9057,7 +9059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -9101,7 +9103,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -9145,7 +9147,7 @@
         <v>-113.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -9192,7 +9194,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -9203,7 +9205,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -9248,7 +9250,7 @@
         <v>443.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -9256,7 +9258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -9307,7 +9309,7 @@
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -9352,13 +9354,13 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -9423,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.5">
       <c r="G17" t="s">
         <v>17</v>
       </c>
@@ -9439,28 +9441,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50982267-BE91-4E95-AD63-2E538907EFD2}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="5"/>
+    <col min="2" max="2" width="25.1171875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -9471,7 +9473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -9480,7 +9482,7 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -9491,7 +9493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -9565,7 +9567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -9636,7 +9638,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -9707,7 +9709,7 @@
         <v>-107</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -9781,7 +9783,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -9792,7 +9794,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -9864,7 +9866,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -9872,7 +9874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -9947,7 +9949,7 @@
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -10022,13 +10024,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -10125,12 +10127,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
       <c r="N16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.5">
       <c r="G17" t="s">
         <v>17</v>
       </c>
@@ -10150,24 +10152,24 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="5"/>
+    <col min="2" max="2" width="19.703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -10175,7 +10177,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -10184,7 +10186,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="G4" t="s">
         <v>18</v>
       </c>
@@ -10192,7 +10194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -10242,7 +10244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -10280,7 +10282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -10318,7 +10320,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -10363,7 +10365,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -10384,7 +10386,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -10427,7 +10429,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -10450,7 +10452,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -10501,7 +10503,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -10540,13 +10542,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -10611,12 +10613,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="G16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.5">
       <c r="H17" t="s">
         <v>21</v>
       </c>
@@ -10636,24 +10638,24 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="5"/>
+    <col min="2" max="2" width="19.703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -10664,7 +10666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -10673,7 +10675,7 @@
         <v>377.65</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -10740,7 +10742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -10799,7 +10801,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -10858,7 +10860,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -10921,7 +10923,7 @@
       </c>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -10946,7 +10948,7 @@
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -11007,7 +11009,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -11034,7 +11036,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -11101,7 +11103,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -11161,13 +11163,13 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -11261,24 +11263,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="5"/>
+    <col min="2" max="2" width="19.703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -11289,7 +11291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -11298,7 +11300,7 @@
         <v>377.65</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
       <c r="R4" t="s">
         <v>18</v>
       </c>
@@ -11306,7 +11308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -11401,7 +11403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -11484,7 +11486,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -11567,7 +11569,7 @@
         <v>-26.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -11653,7 +11655,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -11693,7 +11695,7 @@
       <c r="AI9" s="17"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -11785,7 +11787,7 @@
       <c r="AI10" s="17"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -11811,7 +11813,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -11899,7 +11901,7 @@
       <c r="AE12" s="16"/>
       <c r="AF12" s="16"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -11983,13 +11985,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -12098,17 +12100,17 @@
         <v>-19.335653408942736</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.5">
       <c r="R16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="21:21" x14ac:dyDescent="0.5">
       <c r="U17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="21:21" x14ac:dyDescent="0.5">
       <c r="U18" t="s">
         <v>26</v>
       </c>
@@ -12124,28 +12126,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="5"/>
+    <col min="2" max="2" width="19.703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -12156,7 +12158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -12165,7 +12167,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
@@ -12185,7 +12187,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -12308,7 +12310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -12406,7 +12408,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -12504,7 +12506,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -12605,7 +12607,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -12645,7 +12647,7 @@
       <c r="AI9" s="17"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -12747,7 +12749,7 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -12773,7 +12775,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -12878,7 +12880,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -12977,13 +12979,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -13120,12 +13122,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.5">
       <c r="J16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:29" x14ac:dyDescent="0.5">
       <c r="J17" t="s">
         <v>30</v>
       </c>
@@ -13133,12 +13135,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:29" x14ac:dyDescent="0.5">
       <c r="W18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:29" x14ac:dyDescent="0.5">
       <c r="AC19" t="s">
         <v>35</v>
       </c>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DFDE21-1C9A-4095-B13C-F9A14A900745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40777964-7DE3-4436-A4FB-30BB7BAA4A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="6" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -10148,8 +10148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F358BD-411F-4156-AA93-0DF96BD5C242}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -12126,8 +12126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40777964-7DE3-4436-A4FB-30BB7BAA4A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6646B178-C7E9-43B4-AECA-A404266557D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-22500" yWindow="1230" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="4" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="FlxTest10mm_3" sheetId="6" r:id="rId6"/>
     <sheet name="FlxTest10mm_4" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="39">
   <si>
     <t>Test #</t>
   </si>
@@ -152,6 +150,12 @@
   </si>
   <si>
     <t>Flexor Test 10mm</t>
+  </si>
+  <si>
+    <t>max contraction</t>
+  </si>
+  <si>
+    <t>*Was originally  listed as recorded at 455mm length but I think that was in error [Ben B.]</t>
   </si>
 </sst>
 </file>
@@ -8534,24 +8538,24 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="5"/>
-    <col min="2" max="2" width="25.1171875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.29296875" customWidth="1"/>
-    <col min="5" max="5" width="8.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.29296875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
-    <col min="8" max="9" width="13.41015625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -8559,7 +8563,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -8568,7 +8572,7 @@
         <v>379.31</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -8576,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -8626,7 +8630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -8658,7 +8662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -8690,7 +8694,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -8730,7 +8734,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -8750,7 +8754,7 @@
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -8788,7 +8792,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -8796,7 +8800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -8844,7 +8848,7 @@
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -8877,13 +8881,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -8944,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>17</v>
       </c>
@@ -8964,24 +8968,24 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="5"/>
-    <col min="2" max="2" width="25.1171875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.29296875" customWidth="1"/>
-    <col min="5" max="5" width="8.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.29296875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
-    <col min="8" max="9" width="13.41015625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -8992,7 +8996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -9001,7 +9005,7 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -9009,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -9059,7 +9063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -9103,7 +9107,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -9147,7 +9151,7 @@
         <v>-113.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -9194,7 +9198,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -9205,7 +9209,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -9250,7 +9254,7 @@
         <v>443.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -9258,7 +9262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -9309,7 +9313,7 @@
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -9354,13 +9358,13 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -9425,7 +9429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>17</v>
       </c>
@@ -9445,24 +9449,24 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="5"/>
-    <col min="2" max="2" width="25.1171875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.29296875" customWidth="1"/>
-    <col min="5" max="5" width="8.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.29296875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
-    <col min="8" max="9" width="13.41015625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -9473,7 +9477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -9482,7 +9486,7 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -9493,7 +9497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -9567,7 +9571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -9638,7 +9642,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -9709,7 +9713,7 @@
         <v>-107</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -9783,7 +9787,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -9794,7 +9798,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -9866,7 +9870,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -9874,7 +9878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -9949,7 +9953,7 @@
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -10024,13 +10028,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -10127,12 +10131,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="N16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>17</v>
       </c>
@@ -10148,28 +10152,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F358BD-411F-4156-AA93-0DF96BD5C242}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="5"/>
-    <col min="2" max="2" width="19.703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.29296875" customWidth="1"/>
-    <col min="5" max="5" width="8.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.29296875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
-    <col min="8" max="9" width="13.41015625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -10177,7 +10181,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -10186,7 +10190,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>18</v>
       </c>
@@ -10194,7 +10198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -10244,7 +10248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -10282,7 +10286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -10320,7 +10324,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -10365,7 +10369,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -10386,7 +10390,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -10429,7 +10433,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -10452,7 +10456,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -10503,7 +10507,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -10542,13 +10546,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -10613,12 +10617,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>21</v>
       </c>
@@ -10634,48 +10638,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6146F73C-E4FC-4324-9793-33EFE048507C}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="5"/>
-    <col min="2" max="2" width="19.703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.29296875" customWidth="1"/>
-    <col min="5" max="5" width="8.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.29296875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
-    <col min="8" max="9" width="13.41015625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <f>C2-C2*0.17</f>
-        <v>377.65</v>
+        <v>398</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -10742,7 +10748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -10801,7 +10807,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -10860,7 +10866,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -10923,7 +10929,7 @@
       </c>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -10948,7 +10954,7 @@
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -11009,7 +11015,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -11036,7 +11042,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -11103,7 +11109,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -11163,13 +11169,13 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -11263,24 +11269,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="5"/>
-    <col min="2" max="2" width="19.703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.29296875" customWidth="1"/>
-    <col min="5" max="5" width="8.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.29296875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
-    <col min="8" max="9" width="13.41015625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -11291,7 +11297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -11300,7 +11306,7 @@
         <v>377.65</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R4" t="s">
         <v>18</v>
       </c>
@@ -11308,7 +11314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -11403,7 +11409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -11486,7 +11492,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -11569,7 +11575,7 @@
         <v>-26.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -11655,7 +11661,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -11695,7 +11701,7 @@
       <c r="AI9" s="17"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -11787,7 +11793,7 @@
       <c r="AI10" s="17"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -11813,7 +11819,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -11901,7 +11907,7 @@
       <c r="AE12" s="16"/>
       <c r="AF12" s="16"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -11985,13 +11991,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -12100,17 +12106,17 @@
         <v>-19.335653408942736</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="21:21" x14ac:dyDescent="0.5">
+    <row r="17" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="21:21" x14ac:dyDescent="0.5">
+    <row r="18" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U18" t="s">
         <v>26</v>
       </c>
@@ -12126,28 +12132,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B11" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:AG13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="5"/>
-    <col min="2" max="2" width="19.703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.29296875" customWidth="1"/>
-    <col min="5" max="5" width="8.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.29296875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
-    <col min="8" max="9" width="13.41015625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -12158,7 +12164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -12167,7 +12173,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
@@ -12187,7 +12193,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -12310,7 +12316,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -12408,7 +12414,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -12506,7 +12512,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -12607,7 +12613,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -12647,7 +12653,7 @@
       <c r="AI9" s="17"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -12749,7 +12755,7 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -12775,7 +12781,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -12880,7 +12886,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -12979,13 +12985,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -13122,12 +13128,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="10:29" x14ac:dyDescent="0.5">
+    <row r="17" spans="10:29" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>30</v>
       </c>
@@ -13135,12 +13141,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="10:29" x14ac:dyDescent="0.5">
+    <row r="18" spans="10:29" x14ac:dyDescent="0.25">
       <c r="W18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="10:29" x14ac:dyDescent="0.5">
+    <row r="19" spans="10:29" x14ac:dyDescent="0.25">
       <c r="AC19" t="s">
         <v>35</v>
       </c>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6646B178-C7E9-43B4-AECA-A404266557D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FECBD4-9C38-401C-AB64-FFD785DC045E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22500" yWindow="1230" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="4" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView minimized="1" xWindow="-22155" yWindow="1575" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="3" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="51">
   <si>
     <t>Test #</t>
   </si>
@@ -156,6 +156,42 @@
   </si>
   <si>
     <t>*Was originally  listed as recorded at 455mm length but I think that was in error [Ben B.]</t>
+  </si>
+  <si>
+    <t>*Good picture of bracket bending here</t>
+  </si>
+  <si>
+    <t>the knee angle changes the tibia origin location</t>
+  </si>
+  <si>
+    <t>x-location</t>
+  </si>
+  <si>
+    <t>thetaK</t>
+  </si>
+  <si>
+    <t>y-location</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>x0-25.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Say there is a relationship for bracket bending such that </t>
+  </si>
+  <si>
+    <t xml:space="preserve">^Less force at shorter muscle length (mL approach kmax) </t>
+  </si>
+  <si>
+    <t>y0-5</t>
+  </si>
+  <si>
+    <t>means it doesn't bend much more out of this range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origin bracket also </t>
   </si>
 </sst>
 </file>
@@ -10150,10 +10186,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F358BD-411F-4156-AA93-0DF96BD5C242}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:M7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10622,9 +10658,70 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>45</v>
+      </c>
+      <c r="M26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -10638,7 +10735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6146F73C-E4FC-4324-9793-33EFE048507C}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -12132,7 +12229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:AG13"/>
     </sheetView>
   </sheetViews>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FECBD4-9C38-401C-AB64-FFD785DC045E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62100AF-55A7-45D3-8381-D249A66C5FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-22155" yWindow="1575" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="3" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="6675" yWindow="3960" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="6" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -10188,7 +10188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F358BD-411F-4156-AA93-0DF96BD5C242}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
@@ -11364,7 +11364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D752D96D-CFF4-4F0D-A512-550321C29C07}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12229,7 +12229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:AG13"/>
     </sheetView>
   </sheetViews>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62100AF-55A7-45D3-8381-D249A66C5FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A477542-FC7A-4C39-BE22-B000DBA204C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6675" yWindow="3960" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="6" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-25425" yWindow="1875" windowWidth="13455" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -9481,7 +9481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50982267-BE91-4E95-AD63-2E538907EFD2}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -12229,7 +12229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13:AG13"/>
     </sheetView>
   </sheetViews>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A477542-FC7A-4C39-BE22-B000DBA204C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379E4E0C-56DF-45DE-AAED-2F7BCC24CDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25425" yWindow="1875" windowWidth="13455" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="FlxTest10mm_3" sheetId="6" r:id="rId6"/>
     <sheet name="FlxTest10mm_4" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -8570,28 +8572,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDD6FA0-ED90-4B9F-A1DF-3E2DAEF07409}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="5"/>
+    <col min="2" max="2" width="25.15625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" customWidth="1"/>
+    <col min="8" max="9" width="13.41796875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -8599,7 +8601,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -8608,7 +8610,7 @@
         <v>379.31</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -8616,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -8666,7 +8668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -8698,7 +8700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -8730,7 +8732,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -8770,7 +8772,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -8790,7 +8792,7 @@
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -8828,7 +8830,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -8836,7 +8838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -8884,7 +8886,7 @@
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -8917,13 +8919,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -8984,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G17" t="s">
         <v>17</v>
       </c>
@@ -9001,27 +9003,27 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="5"/>
+    <col min="2" max="2" width="25.15625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" customWidth="1"/>
+    <col min="8" max="9" width="13.41796875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -9032,7 +9034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -9041,7 +9043,7 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -9049,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -9099,7 +9101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -9143,7 +9145,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -9187,7 +9189,7 @@
         <v>-113.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -9234,7 +9236,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -9245,7 +9247,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -9290,7 +9292,7 @@
         <v>443.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -9298,7 +9300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -9349,7 +9351,7 @@
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -9394,13 +9396,13 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -9465,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G17" t="s">
         <v>17</v>
       </c>
@@ -9481,28 +9483,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50982267-BE91-4E95-AD63-2E538907EFD2}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="5"/>
+    <col min="2" max="2" width="25.15625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" customWidth="1"/>
+    <col min="8" max="9" width="13.41796875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -9513,7 +9515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -9522,7 +9524,7 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -9533,7 +9535,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -9607,7 +9609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -9678,7 +9680,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -9749,7 +9751,7 @@
         <v>-107</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -9823,7 +9825,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -9834,7 +9836,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -9906,7 +9908,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -9914,7 +9916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -9989,7 +9991,7 @@
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -10064,13 +10066,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -10167,12 +10169,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="N16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G17" t="s">
         <v>17</v>
       </c>
@@ -10188,28 +10190,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F358BD-411F-4156-AA93-0DF96BD5C242}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="5"/>
+    <col min="2" max="2" width="19.68359375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" customWidth="1"/>
+    <col min="8" max="9" width="13.41796875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -10217,7 +10219,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -10226,7 +10228,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="G4" t="s">
         <v>18</v>
       </c>
@@ -10234,7 +10236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -10284,7 +10286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -10322,7 +10324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -10360,7 +10362,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -10405,7 +10407,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -10426,7 +10428,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -10469,7 +10471,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -10492,7 +10494,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -10543,7 +10545,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -10582,13 +10584,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -10653,12 +10655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:14" x14ac:dyDescent="0.55000000000000004">
       <c r="H17" t="s">
         <v>21</v>
       </c>
@@ -10666,17 +10668,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:14" x14ac:dyDescent="0.55000000000000004">
       <c r="L22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:14" x14ac:dyDescent="0.55000000000000004">
       <c r="L23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:14" x14ac:dyDescent="0.55000000000000004">
       <c r="L24" t="s">
         <v>42</v>
       </c>
@@ -10687,7 +10689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:14" x14ac:dyDescent="0.55000000000000004">
       <c r="L25">
         <v>0</v>
       </c>
@@ -10698,7 +10700,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:14" x14ac:dyDescent="0.55000000000000004">
       <c r="L26">
         <v>45</v>
       </c>
@@ -10709,17 +10711,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:14" x14ac:dyDescent="0.55000000000000004">
       <c r="L30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:14" x14ac:dyDescent="0.55000000000000004">
       <c r="L31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.55000000000000004">
       <c r="L33" t="s">
         <v>50</v>
       </c>
@@ -10739,24 +10741,24 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="5"/>
+    <col min="2" max="2" width="19.68359375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" customWidth="1"/>
+    <col min="8" max="9" width="13.41796875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -10767,7 +10769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>37</v>
       </c>
@@ -10778,7 +10780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -10845,7 +10847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -10904,7 +10906,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -10963,7 +10965,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -11026,7 +11028,7 @@
       </c>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -11051,7 +11053,7 @@
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -11112,7 +11114,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -11139,7 +11141,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -11206,7 +11208,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -11266,13 +11268,13 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -11364,26 +11366,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D752D96D-CFF4-4F0D-A512-550321C29C07}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0"/>
+    <sheetView topLeftCell="J1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="5"/>
+    <col min="2" max="2" width="19.68359375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" customWidth="1"/>
+    <col min="8" max="9" width="13.41796875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -11394,7 +11396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -11403,7 +11405,7 @@
         <v>377.65</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="R4" t="s">
         <v>18</v>
       </c>
@@ -11411,7 +11413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -11506,7 +11508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -11589,7 +11591,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -11672,7 +11674,7 @@
         <v>-26.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -11758,7 +11760,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -11798,7 +11800,7 @@
       <c r="AI9" s="17"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -11890,7 +11892,7 @@
       <c r="AI10" s="17"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -11916,7 +11918,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -12004,7 +12006,7 @@
       <c r="AE12" s="16"/>
       <c r="AF12" s="16"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -12088,13 +12090,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -12203,17 +12205,17 @@
         <v>-19.335653408942736</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="R16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U18" t="s">
         <v>26</v>
       </c>
@@ -12230,27 +12232,27 @@
   <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:AG13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="5"/>
+    <col min="2" max="2" width="19.68359375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" customWidth="1"/>
+    <col min="8" max="9" width="13.41796875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -12261,7 +12263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -12270,7 +12272,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
@@ -12290,7 +12292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -12413,7 +12415,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -12511,7 +12513,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -12609,7 +12611,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -12710,7 +12712,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -12750,7 +12752,7 @@
       <c r="AI9" s="17"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -12852,7 +12854,7 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -12878,7 +12880,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -12983,7 +12985,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -13082,13 +13084,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -13225,12 +13227,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="J16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:29" x14ac:dyDescent="0.55000000000000004">
       <c r="J17" t="s">
         <v>30</v>
       </c>
@@ -13238,12 +13240,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:29" x14ac:dyDescent="0.55000000000000004">
       <c r="W18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:29" x14ac:dyDescent="0.55000000000000004">
       <c r="AC19" t="s">
         <v>35</v>
       </c>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379E4E0C-56DF-45DE-AAED-2F7BCC24CDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC021252-2E03-4797-B5B9-01E5D55EB3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-26085" yWindow="855" windowWidth="13455" windowHeight="11385" firstSheet="4" activeTab="6" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -8572,28 +8572,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDD6FA0-ED90-4B9F-A1DF-3E2DAEF07409}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="5"/>
-    <col min="2" max="2" width="25.15625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.68359375" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="9" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>379.31</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -8772,7 +8772,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -8792,7 +8792,7 @@
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -8830,7 +8830,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -8886,7 +8886,7 @@
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -8919,13 +8919,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>17</v>
       </c>
@@ -9006,24 +9006,24 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="5"/>
-    <col min="2" max="2" width="25.15625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.68359375" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="9" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>-113.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -9247,7 +9247,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -9292,7 +9292,7 @@
         <v>443.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -9351,7 +9351,7 @@
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -9396,13 +9396,13 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>17</v>
       </c>
@@ -9487,24 +9487,24 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="5"/>
-    <col min="2" max="2" width="25.15625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.68359375" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="9" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>-107</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -9836,7 +9836,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -9908,7 +9908,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -9991,7 +9991,7 @@
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -10066,13 +10066,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -10169,12 +10169,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="N16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>17</v>
       </c>
@@ -10194,24 +10194,24 @@
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="5"/>
-    <col min="2" max="2" width="19.68359375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.68359375" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="9" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>18</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -10407,7 +10407,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -10428,7 +10428,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -10471,7 +10471,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -10494,7 +10494,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -10545,7 +10545,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -10584,13 +10584,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -10655,12 +10655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>21</v>
       </c>
@@ -10668,17 +10668,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
       <c r="L22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="8:14" x14ac:dyDescent="0.25">
       <c r="L23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
       <c r="L24" t="s">
         <v>42</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
       <c r="L25">
         <v>0</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="8:14" x14ac:dyDescent="0.25">
       <c r="L26">
         <v>45</v>
       </c>
@@ -10711,17 +10711,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="8:14" x14ac:dyDescent="0.25">
       <c r="L30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="8:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="8:14" x14ac:dyDescent="0.25">
       <c r="L31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" t="s">
         <v>50</v>
       </c>
@@ -10741,24 +10741,24 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="5"/>
-    <col min="2" max="2" width="19.68359375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.68359375" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="9" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>37</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -11053,7 +11053,7 @@
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -11114,7 +11114,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -11141,7 +11141,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -11208,7 +11208,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -11268,13 +11268,13 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -11366,26 +11366,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D752D96D-CFF4-4F0D-A512-550321C29C07}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="5"/>
-    <col min="2" max="2" width="19.68359375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.68359375" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="9" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>377.65</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R4" t="s">
         <v>18</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>-26.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -11800,7 +11800,7 @@
       <c r="AI9" s="17"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -11892,7 +11892,7 @@
       <c r="AI10" s="17"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -11918,7 +11918,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -12006,7 +12006,7 @@
       <c r="AE12" s="16"/>
       <c r="AF12" s="16"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -12090,13 +12090,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -12205,17 +12205,17 @@
         <v>-19.335653408942736</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="R16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="21:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="21:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U18" t="s">
         <v>26</v>
       </c>
@@ -12231,28 +12231,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="5"/>
-    <col min="2" max="2" width="19.68359375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.68359375" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="9" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -12752,7 +12752,7 @@
       <c r="AI9" s="17"/>
       <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -12854,7 +12854,7 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -12880,7 +12880,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -12985,7 +12985,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -13084,13 +13084,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -13227,12 +13227,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="10:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="10:29" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>30</v>
       </c>
@@ -13240,12 +13240,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="10:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="10:29" x14ac:dyDescent="0.25">
       <c r="W18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="10:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="10:29" x14ac:dyDescent="0.25">
       <c r="AC19" t="s">
         <v>35</v>
       </c>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC021252-2E03-4797-B5B9-01E5D55EB3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5003D9-4546-4EC3-9BB2-BFC8BFA235DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26085" yWindow="855" windowWidth="13455" windowHeight="11385" firstSheet="4" activeTab="6" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -1970,8 +1970,59 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.4151176415448069"/>
-                  <c:y val="-0.16622090555512245"/>
+                  <c:x val="-0.50142716535433074"/>
+                  <c:y val="-0.21902618608317526"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26819811586051745"/>
+                  <c:y val="-3.7642472908708195E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2441,10 +2492,55 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.22727306537689607"/>
-                  <c:y val="-0.10130839321960725"/>
+                  <c:x val="-0.44424446944131984"/>
+                  <c:y val="-0.20169954003274343"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2954,8 +3050,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.22727306537689607"/>
-                  <c:y val="-0.10130839321960725"/>
+                  <c:x val="-0.38355830521184853"/>
+                  <c:y val="-0.12722122605961392"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3005,8 +3101,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.8393325834270717E-2"/>
-                  <c:y val="4.2005838379113501E-2"/>
+                  <c:x val="-0.16521020809898762"/>
+                  <c:y val="5.1338236185823304E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -10191,7 +10287,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11366,7 +11462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D752D96D-CFF4-4F0D-A512-550321C29C07}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5003D9-4546-4EC3-9BB2-BFC8BFA235DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E17273A-BC34-4F33-AE87-D01A58A67ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -11462,7 +11462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D752D96D-CFF4-4F0D-A512-550321C29C07}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -12329,8 +12329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E17273A-BC34-4F33-AE87-D01A58A67ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2465B52-41D4-482E-8E18-B612FF1267D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11235" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -369,12 +369,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -386,10 +384,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8668,37 +8662,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDD6FA0-ED90-4B9F-A1DF-3E2DAEF07409}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="25.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3">
@@ -8706,66 +8700,66 @@
         <v>379.31</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>4</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>5</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>6</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>7</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <v>8</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="10">
         <v>9</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="10">
         <v>10</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="10">
         <v>11</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="10">
         <v>12</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="10">
         <v>13</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="10">
         <v>14</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C6">
@@ -8796,8 +8790,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C7">
@@ -8828,201 +8822,177 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>68.099999999999994</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>67.900000000000006</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>68.599999999999994</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>70.8</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>70.8</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>72.3</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>74.900000000000006</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>75.400000000000006</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>77.5</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10">
         <v>430</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10">
         <v>430</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10">
         <v>420</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10">
         <v>415</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10">
         <v>410</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10">
         <v>401</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10">
         <v>390</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10">
         <v>388</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10">
         <v>385</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12">
         <v>268.06</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12">
         <v>268.06</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12">
         <v>268.06</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12">
         <v>268.06</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12">
         <v>268.06</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12">
         <v>268.06</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12">
         <v>268.06</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12">
         <v>268.06</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12">
         <v>268.06</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12">
         <v>268.06</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12">
         <v>268.06</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12">
         <v>268.06</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12">
         <v>268.06</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12">
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13">
         <v>30</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13">
         <v>30</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13">
         <v>30</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13">
         <v>30</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13">
         <v>34</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13">
         <v>35</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13">
         <v>45</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13">
         <v>50</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C15">
@@ -9082,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
         <v>17</v>
       </c>
@@ -9102,25 +9072,25 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="25.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2">
@@ -9130,8 +9100,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3">
@@ -9139,66 +9109,66 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>4</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>5</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>6</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>7</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <v>8</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="10">
         <v>9</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="10">
         <v>10</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="10">
         <v>11</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="10">
         <v>12</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="10">
         <v>13</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="10">
         <v>14</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C6">
@@ -9241,8 +9211,8 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C7">
@@ -9285,221 +9255,216 @@
         <v>-113.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>111</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>111</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>110.5</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>108</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>104.5</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>114.5</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>108</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>109.5</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>110</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>117</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>113</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>112</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10">
         <v>448</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10">
         <v>445.5</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10">
         <v>429.5</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10">
         <v>413.5</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10">
         <v>401</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10">
         <v>410</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10">
         <v>417.5</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10">
         <v>422.5</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10">
         <v>430.5</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10">
         <v>429.5</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10">
         <v>441.5</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10">
         <v>439</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10">
         <v>443.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12">
         <v>268.06</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12">
         <v>268.06</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12">
         <v>268.06</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12">
         <v>268.06</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12">
         <v>268.06</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12">
         <v>268.06</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12">
         <v>268.06</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12">
         <v>268.06</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12">
         <v>268.06</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12">
         <v>268.06</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12">
         <v>268.06</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12">
         <v>268.06</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12">
         <v>268.06</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12">
         <v>268.06</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12">
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13">
         <v>46</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13">
         <v>54.5</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13">
         <v>53</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13">
         <v>52</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13">
         <v>57</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13">
         <v>49</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13">
         <v>53</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13">
         <v>53</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13">
         <v>54</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13">
         <v>51</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13">
         <v>52</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13">
         <v>53</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13">
         <v>55.5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C15">
@@ -9563,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
         <v>17</v>
       </c>
@@ -9583,25 +9548,25 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="25.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="25.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2">
@@ -9611,8 +9576,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3">
@@ -9620,8 +9585,8 @@
         <v>398.4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C4">
@@ -9631,82 +9596,82 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>4</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>5</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>6</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>7</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <v>8</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="10">
         <v>9</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="10">
         <v>10</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="10">
         <v>11</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="10">
         <v>12</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="10">
         <v>13</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="10">
         <v>14</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="10">
         <v>15</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="10">
         <v>16</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="10">
         <v>17</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="10">
         <v>18</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="10">
         <v>19</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="10">
         <v>20</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="10">
         <v>21</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="10">
         <v>22</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Y5" s="10">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C6">
@@ -9776,8 +9741,8 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C7">
@@ -9847,329 +9812,324 @@
         <v>-107</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>111</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>110.5</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>69</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>70</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>70</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>70</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>109</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>73.5</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>64</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>73</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>73</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>73</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>71</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>70</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <v>68</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <v>68</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <v>66</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="1">
         <v>67</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="1">
         <v>67</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="1">
         <v>67</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="1">
         <v>67</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10">
         <v>445</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10">
         <v>445</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10">
         <v>433</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10">
         <v>426</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10">
         <v>423</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10">
         <v>421</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10">
         <v>420</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10">
         <v>415</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10">
         <v>405</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10">
         <v>400</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10">
         <v>398</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10">
         <v>400</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10">
         <v>405</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10">
         <v>407</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10">
         <v>416</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10">
         <v>420</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10">
         <v>430</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10">
         <v>433</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10">
         <v>441</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10">
         <v>440</v>
       </c>
-      <c r="W10" s="16">
+      <c r="W10">
         <v>450</v>
       </c>
-      <c r="X10" s="16">
+      <c r="X10">
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12">
         <v>268.06</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12">
         <v>268.06</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12">
         <v>268.06</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12">
         <v>268.06</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12">
         <v>268.06</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12">
         <v>268.06</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12">
         <v>268.06</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12">
         <v>268.06</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12">
         <v>290</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12">
         <v>268.06</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12">
         <v>268.06</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12">
         <v>268.06</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12">
         <v>268.06</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12">
         <v>268.06</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12">
         <v>268.06</v>
       </c>
-      <c r="R12" s="16">
+      <c r="R12">
         <v>268.06</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12">
         <v>268.06</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12">
         <v>268.06</v>
       </c>
-      <c r="U12" s="16">
+      <c r="U12">
         <v>268.06</v>
       </c>
-      <c r="V12" s="16">
+      <c r="V12">
         <v>268.06</v>
       </c>
-      <c r="W12" s="16">
+      <c r="W12">
         <v>268.06</v>
       </c>
-      <c r="X12" s="16">
+      <c r="X12">
         <v>268.06</v>
       </c>
-      <c r="Y12" s="16">
+      <c r="Y12">
         <v>268.06</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13">
         <v>32</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13">
         <v>30</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13">
         <v>30</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13">
         <v>30</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13">
         <v>30</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13">
         <v>30</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13">
         <v>30</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13">
         <v>30</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13">
         <v>35</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13">
         <v>35</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13">
         <v>40</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13">
         <v>35</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13">
         <v>34</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13">
         <v>33</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13">
         <v>30</v>
       </c>
-      <c r="R13" s="16">
+      <c r="R13">
         <v>30</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S13">
         <v>30</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13">
         <v>30</v>
       </c>
-      <c r="U13" s="16">
+      <c r="U13">
         <v>30</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13">
         <v>30</v>
       </c>
-      <c r="W13" s="16">
+      <c r="W13">
         <v>30</v>
       </c>
-      <c r="X13" s="16">
+      <c r="X13">
         <v>30</v>
       </c>
-      <c r="Y13" s="16">
+      <c r="Y13">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C15">
@@ -10265,12 +10225,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="N16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
         <v>17</v>
       </c>
@@ -10290,33 +10250,33 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>485</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3">
@@ -10324,7 +10284,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>18</v>
       </c>
@@ -10332,58 +10292,58 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>4</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>5</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>6</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>7</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <v>8</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="10">
         <v>9</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="10">
         <v>10</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="10">
         <v>11</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="10">
         <v>12</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="10">
         <v>13</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="10">
         <v>14</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C6">
@@ -10420,8 +10380,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C7">
@@ -10458,236 +10418,217 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>93.5</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>94</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>84.5</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>84</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>83</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>85</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>86</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>85</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>79</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>81</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="1">
         <v>81</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C10">
         <v>460</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10">
         <v>457</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10">
         <v>451</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10">
         <v>445</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10">
         <v>450</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10">
         <v>452</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10">
         <v>438</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10">
         <v>427</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10">
         <v>420</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10">
         <v>415</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10">
         <v>409</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12">
         <v>269</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12">
         <v>269</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12">
         <v>269</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12">
         <v>269</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12">
         <v>269</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12">
         <v>269</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12">
         <v>269</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12">
         <v>269</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12">
         <v>269</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12">
         <v>269</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12">
         <v>269</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12">
         <v>269</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12">
         <v>269</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12">
         <v>269</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12">
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13">
         <v>66</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13">
         <v>70</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13">
         <v>75</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13">
         <v>77</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13">
         <v>74</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13">
         <v>75</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13">
         <v>78</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13">
         <v>77</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13">
         <v>75</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13">
         <v>68</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C15">
@@ -10751,12 +10692,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>21</v>
       </c>
@@ -10764,17 +10705,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:14" x14ac:dyDescent="0.3">
       <c r="L22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:14" x14ac:dyDescent="0.3">
       <c r="L23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:14" x14ac:dyDescent="0.3">
       <c r="L24" t="s">
         <v>42</v>
       </c>
@@ -10785,7 +10726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:14" x14ac:dyDescent="0.3">
       <c r="L25">
         <v>0</v>
       </c>
@@ -10796,7 +10737,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:14" x14ac:dyDescent="0.3">
       <c r="L26">
         <v>45</v>
       </c>
@@ -10807,17 +10748,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:14" x14ac:dyDescent="0.3">
       <c r="L30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:14" x14ac:dyDescent="0.3">
       <c r="L31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L33" t="s">
         <v>50</v>
       </c>
@@ -10837,25 +10778,25 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2">
@@ -10865,8 +10806,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C3">
@@ -10876,75 +10817,75 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>4</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>5</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>6</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>7</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <v>8</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="10">
         <v>9</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="10">
         <v>10</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="10">
         <v>11</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="10">
         <v>12</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="10">
         <v>13</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="10">
         <v>14</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="10">
         <f>P5+1</f>
         <v>15</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="10">
         <f>Q5+1</f>
         <v>16</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="10">
         <f t="shared" ref="S5:U5" si="0">R5+1</f>
         <v>17</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C6">
@@ -11002,8 +10943,8 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C7">
@@ -11061,317 +11002,297 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>97.5</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>95</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>96.5</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>96</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>96</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>94</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>95</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>96</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>97</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>94.5</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="1">
         <v>97</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="1">
         <v>96</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="1">
         <v>94.5</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="1">
         <v>86</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="1">
         <v>95.9</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="1">
         <v>95.5</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="1">
         <v>94</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="1">
         <v>94.5</v>
       </c>
-      <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10">
         <v>459</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10">
         <v>448</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10">
         <v>449</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10">
         <v>433</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10">
         <v>423</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10">
         <v>419.5</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10">
         <v>410.5</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10">
         <v>406</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10">
         <v>396</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10">
         <v>392.5</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10">
         <v>401.5</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10">
         <v>407</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10">
         <v>411.5</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10">
         <v>426</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10">
         <v>432</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10">
         <v>436</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10">
         <v>441</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10">
         <v>442.5</v>
       </c>
-      <c r="U10" s="1"/>
+      <c r="U10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12">
         <v>269</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12">
         <v>269</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12">
         <v>269</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12">
         <v>269</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12">
         <v>269</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12">
         <v>269</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12">
         <v>269</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12">
         <v>269</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12">
         <v>269</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12">
         <v>269</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12">
         <v>269</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12">
         <v>269</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12">
         <v>269</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12">
         <v>269</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12">
         <v>269</v>
       </c>
-      <c r="R12" s="16">
+      <c r="R12">
         <f>Q12</f>
         <v>269</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12">
         <f t="shared" ref="S12:U12" si="1">R12</f>
         <v>269</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12">
         <f t="shared" si="1"/>
         <v>269</v>
       </c>
-      <c r="U12" s="16">
+      <c r="U12">
         <f t="shared" si="1"/>
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13">
         <v>76</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13">
         <v>84</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13">
         <v>81</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13">
         <v>85</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13">
         <v>84</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13">
         <v>83</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13">
         <v>81</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13">
         <v>85</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13">
         <v>64</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13">
         <v>66.5</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13">
         <v>70</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13">
         <v>81</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13">
         <v>83.5</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13">
         <v>85.5</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13">
         <v>85</v>
       </c>
-      <c r="R13" s="16">
+      <c r="R13">
         <v>86</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S13">
         <v>80.5</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13">
         <v>79.5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C15">
@@ -11462,29 +11383,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D752D96D-CFF4-4F0D-A512-550321C29C07}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2">
@@ -11494,8 +11415,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3">
@@ -11503,7 +11424,7 @@
         <v>377.65</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="R4" t="s">
         <v>18</v>
       </c>
@@ -11511,103 +11432,103 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>4</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>5</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>6</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>7</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <v>8</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="10">
         <v>9</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="10">
         <v>10</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="10">
         <v>11</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="10">
         <v>12</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="10">
         <v>13</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="10">
         <v>14</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="10">
         <f>P5+1</f>
         <v>15</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="10">
         <f>Q5+1</f>
         <v>16</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="10">
         <f t="shared" ref="S5:AB5" si="0">R5+1</f>
         <v>17</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Y5" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="Z5" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AA5" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AB5" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C6">
@@ -11689,8 +11610,8 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C7">
@@ -11772,430 +11693,392 @@
         <v>-26.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>80</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>83</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>82</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>82.5</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>83</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>82</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>81</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>80</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>81</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>80</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="1">
         <v>79</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="1">
         <v>79</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="1">
         <v>79</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="1">
         <v>78</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="1">
         <v>78</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="1">
         <v>79</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="1">
         <v>81</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="1">
         <v>80</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="1">
         <v>81</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="1">
         <v>80</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="1">
         <v>84</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="1">
         <v>83.5</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="1">
         <v>83</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="1">
         <v>80</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8" s="1">
         <v>83</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8" s="1">
         <v>82.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10">
         <v>438</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10">
         <v>438</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10">
         <v>434</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10">
         <v>424</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10">
         <v>419</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10">
         <v>415</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10">
         <v>408</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10">
         <v>401</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10">
         <v>399</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10">
         <v>394</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10">
         <v>388</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10">
         <v>388</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10">
         <v>386</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10">
         <v>381</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10">
         <v>380</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10">
         <v>384</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10">
         <v>386</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10">
         <v>390</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="2">
         <v>394</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="2">
         <v>400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="2">
         <v>407</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="2">
         <v>413</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="2">
         <v>422</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="2">
         <v>426</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="2">
         <v>433</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="2">
         <v>438</v>
       </c>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12">
         <v>269</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12">
         <v>269</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12">
         <v>269</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12">
         <v>269</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12">
         <v>269</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12">
         <v>269</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12">
         <v>269</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12">
         <v>269</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12">
         <v>269</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12">
         <v>269</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12">
         <v>269</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12">
         <v>269</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12">
         <v>269</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12">
         <v>269</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12">
         <v>269</v>
       </c>
-      <c r="R12" s="16">
+      <c r="R12">
         <v>269</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12">
         <v>269</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12">
         <v>269</v>
       </c>
-      <c r="U12" s="16">
+      <c r="U12">
         <v>269</v>
       </c>
-      <c r="V12" s="16">
+      <c r="V12">
         <v>269</v>
       </c>
-      <c r="W12" s="16">
+      <c r="W12">
         <v>269</v>
       </c>
-      <c r="X12" s="16">
+      <c r="X12">
         <v>269</v>
       </c>
-      <c r="Y12" s="16">
+      <c r="Y12">
         <v>269</v>
       </c>
-      <c r="Z12" s="16">
+      <c r="Z12">
         <v>269</v>
       </c>
-      <c r="AA12" s="16">
+      <c r="AA12">
         <v>269</v>
       </c>
-      <c r="AB12" s="16">
+      <c r="AB12">
         <v>269</v>
       </c>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13">
         <v>85</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13">
         <v>85</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13">
         <v>85</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13">
         <v>88</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13">
         <v>90</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13">
         <v>88</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13">
         <v>83</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13">
         <v>80</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13">
         <v>75</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13">
         <v>70</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13">
         <v>60</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13">
         <v>64</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13">
         <v>60</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13">
         <v>60</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13">
         <v>63</v>
       </c>
-      <c r="R13" s="16">
+      <c r="R13">
         <v>65</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S13">
         <v>65</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13">
         <v>68</v>
       </c>
-      <c r="U13" s="16">
+      <c r="U13">
         <v>75</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13">
         <v>79</v>
       </c>
-      <c r="W13" s="16">
+      <c r="W13">
         <v>84</v>
       </c>
-      <c r="X13" s="16">
+      <c r="X13">
         <v>90</v>
       </c>
-      <c r="Y13" s="16">
+      <c r="Y13">
         <v>92</v>
       </c>
-      <c r="Z13" s="16">
+      <c r="Z13">
         <v>90</v>
       </c>
-      <c r="AA13" s="16">
+      <c r="AA13">
         <v>89</v>
       </c>
-      <c r="AB13" s="16">
+      <c r="AB13">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C15">
@@ -12303,17 +12186,17 @@
         <v>-19.335653408942736</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="R16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U18" t="s">
         <v>26</v>
       </c>
@@ -12333,25 +12216,25 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2">
@@ -12361,8 +12244,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3">
@@ -12370,8 +12253,8 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C4">
@@ -12390,131 +12273,131 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>4</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>5</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>6</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>7</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <v>8</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="10">
         <v>9</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="10">
         <v>10</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="10">
         <v>11</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="10">
         <v>12</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="10">
         <v>13</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="10">
         <v>14</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="10">
         <f>P5+1</f>
         <v>15</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="10">
         <f>Q5+1</f>
         <v>16</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="10">
         <f t="shared" ref="S5:AB5" si="0">R5+1</f>
         <v>17</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Y5" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="Z5" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AA5" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AB5" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AC5" s="10">
         <f t="shared" ref="AC5" si="1">AB5+1</f>
         <v>27</v>
       </c>
-      <c r="AD5" s="12">
+      <c r="AD5" s="10">
         <f t="shared" ref="AD5" si="2">AC5+1</f>
         <v>28</v>
       </c>
-      <c r="AE5" s="12">
+      <c r="AE5" s="10">
         <f t="shared" ref="AE5" si="3">AD5+1</f>
         <v>29</v>
       </c>
-      <c r="AF5" s="12">
+      <c r="AF5" s="10">
         <f t="shared" ref="AF5" si="4">AE5+1</f>
         <v>30</v>
       </c>
-      <c r="AG5" s="12">
+      <c r="AG5" s="10">
         <f t="shared" ref="AG5" si="5">AF5+1</f>
         <v>31</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AH5" s="10">
         <f t="shared" ref="AH5" si="6">AG5+1</f>
         <v>32</v>
       </c>
-      <c r="AI5" s="12">
+      <c r="AI5" s="10">
         <f t="shared" ref="AI5" si="7">AH5+1</f>
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C6">
@@ -12611,8 +12494,8 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C7">
@@ -12709,487 +12592,453 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>84.5</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>84</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>83</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>83</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>83.5</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>82.5</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>82.5</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>81.5</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>82</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>82</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="1">
         <v>81</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="1">
         <v>81.5</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="1">
         <v>83</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="1">
         <v>81</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="1">
         <v>82</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="1">
         <v>83</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="1">
         <v>83</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="1">
         <v>82.5</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="1">
         <v>83</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="1">
         <v>83</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="1">
         <v>102</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="1">
         <v>98</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="1">
         <v>96</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="1">
         <v>103.5</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8" s="1">
         <v>104</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8" s="1">
         <v>104</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8" s="1">
         <v>103.5</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8" s="1">
         <v>103</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AE8" s="1">
         <v>103</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF8" s="1">
         <v>103</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AG8" s="1">
         <v>103.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
     </row>
-    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10">
         <v>450</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10">
         <v>445</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10">
         <v>439</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10">
         <v>435</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10">
         <v>431</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10">
         <v>426</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10">
         <v>421</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10">
         <v>410</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10">
         <v>408</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10">
         <v>406</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10">
         <v>402</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10">
         <v>398</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10">
         <v>398</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10">
         <v>400</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10">
         <v>404</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10">
         <v>420</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10">
         <v>429</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10">
         <v>434</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="2">
         <v>444</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="2">
         <v>431</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="2">
         <v>461</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="2">
         <v>459</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="2">
         <v>453</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="2">
         <v>450</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="2">
         <v>442</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="2">
         <v>442</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="2">
         <v>443</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="2">
         <v>445</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AE10" s="2">
         <v>449</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AF10" s="2">
         <v>454</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AG10" s="2">
         <v>458</v>
       </c>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12">
         <v>265</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12">
         <v>265</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12">
         <v>265</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12">
         <v>265</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12">
         <v>265</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12">
         <v>265</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12">
         <v>265</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12">
         <v>265</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12">
         <v>265</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12">
         <v>265</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12">
         <v>265</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12">
         <v>265</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12">
         <v>265</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12">
         <v>265</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12">
         <v>265</v>
       </c>
-      <c r="R12" s="16">
+      <c r="R12">
         <v>265</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12">
         <v>265</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12">
         <v>265</v>
       </c>
-      <c r="U12" s="16">
+      <c r="U12">
         <v>265</v>
       </c>
-      <c r="V12" s="16">
+      <c r="V12">
         <v>265</v>
       </c>
-      <c r="W12" s="16">
+      <c r="W12">
         <v>273</v>
       </c>
-      <c r="X12" s="16">
+      <c r="X12">
         <v>270</v>
       </c>
-      <c r="Y12" s="16">
+      <c r="Y12">
         <v>270</v>
       </c>
-      <c r="Z12" s="16">
+      <c r="Z12">
         <v>267</v>
       </c>
-      <c r="AA12" s="16">
+      <c r="AA12">
         <v>267</v>
       </c>
-      <c r="AB12" s="16">
+      <c r="AB12">
         <v>270</v>
       </c>
-      <c r="AC12" s="16">
+      <c r="AC12">
         <v>270</v>
       </c>
-      <c r="AD12" s="16">
+      <c r="AD12">
         <v>270</v>
       </c>
-      <c r="AE12" s="16">
+      <c r="AE12">
         <v>266</v>
       </c>
-      <c r="AF12" s="16">
+      <c r="AF12">
         <v>267</v>
       </c>
-      <c r="AG12" s="16">
+      <c r="AG12">
         <v>265</v>
       </c>
-      <c r="AH12" s="16">
+      <c r="AH12">
         <v>267</v>
       </c>
-      <c r="AI12" s="16">
+      <c r="AI12">
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13">
         <v>75</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13">
         <v>77</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13">
         <v>80</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13">
         <v>83</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13">
         <v>84</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13">
         <v>84</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13">
         <v>84</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13">
         <v>79</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13">
         <v>77</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13">
         <v>75</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13">
         <v>69</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13">
         <v>65</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13">
         <v>65</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13">
         <v>67</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13">
         <v>73</v>
       </c>
-      <c r="R13" s="16">
+      <c r="R13">
         <v>84</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S13">
         <v>83</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13">
         <v>82</v>
       </c>
-      <c r="U13" s="16">
+      <c r="U13">
         <v>79</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13">
         <v>83</v>
       </c>
-      <c r="W13" s="16">
+      <c r="W13">
         <v>58</v>
       </c>
-      <c r="X13" s="16">
+      <c r="X13">
         <v>64</v>
       </c>
-      <c r="Y13" s="16">
+      <c r="Y13">
         <v>69</v>
       </c>
-      <c r="Z13" s="16">
+      <c r="Z13">
         <v>73</v>
       </c>
-      <c r="AA13" s="16">
+      <c r="AA13">
         <v>78</v>
       </c>
-      <c r="AB13" s="16">
+      <c r="AB13">
         <v>78</v>
       </c>
-      <c r="AC13" s="16">
+      <c r="AC13">
         <v>75</v>
       </c>
-      <c r="AD13" s="16">
+      <c r="AD13">
         <v>75</v>
       </c>
-      <c r="AE13" s="16">
+      <c r="AE13">
         <v>75</v>
       </c>
-      <c r="AF13" s="16">
+      <c r="AF13">
         <v>70</v>
       </c>
-      <c r="AG13" s="16">
+      <c r="AG13">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C15">
@@ -13325,12 +13174,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="J16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:29" x14ac:dyDescent="0.3">
       <c r="J17" t="s">
         <v>30</v>
       </c>
@@ -13338,12 +13187,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:29" x14ac:dyDescent="0.3">
       <c r="W18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="10:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:29" x14ac:dyDescent="0.3">
       <c r="AC19" t="s">
         <v>35</v>
       </c>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2465B52-41D4-482E-8E18-B612FF1267D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72354B7-638F-48A1-A884-E76578A00617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11235" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="29820" yWindow="3195" windowWidth="21630" windowHeight="11250" activeTab="2" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -8662,7 +8662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDD6FA0-ED90-4B9F-A1DF-3E2DAEF07409}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -9544,7 +9544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50982267-BE91-4E95-AD63-2E538907EFD2}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -10247,7 +10247,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72354B7-638F-48A1-A884-E76578A00617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78602AA3-0310-4BAD-ACD1-C1FAC22EE6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29820" yWindow="3195" windowWidth="21630" windowHeight="11250" activeTab="2" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -8662,7 +8662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDD6FA0-ED90-4B9F-A1DF-3E2DAEF07409}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -9544,7 +9544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50982267-BE91-4E95-AD63-2E538907EFD2}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_FishScale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78602AA3-0310-4BAD-ACD1-C1FAC22EE6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD9C41D-EE08-40E2-ADC0-7BF62F7B7BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="2" r:id="rId1"/>
@@ -8364,9 +8364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8404,7 +8404,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8510,7 +8510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8652,7 +8652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8662,8 +8662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDD6FA0-ED90-4B9F-A1DF-3E2DAEF07409}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9544,7 +9544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50982267-BE91-4E95-AD63-2E538907EFD2}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
